--- a/spisok_knig.xlsx
+++ b/spisok_knig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Competence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC6DA71-CA4C-471C-9EBF-4BDCB373CAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE0F667-9760-42F8-8604-ED0AAFA4D36D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4470" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{D4ED359D-3E62-4B71-943D-40BC68E4524F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="194">
   <si>
     <t>Глава 1. Содержание и основные понятия маркетинга</t>
   </si>
@@ -289,13 +289,337 @@
   </si>
   <si>
     <t>"Экономика. Конспект лекций для студентов вузов"</t>
+  </si>
+  <si>
+    <t>Сокращения имен</t>
+  </si>
+  <si>
+    <t>Раздел I. Стилистическая система современного русского языка</t>
+  </si>
+  <si>
+    <t>Глава 1. Стилистическое многообразие русского языка</t>
+  </si>
+  <si>
+    <t>Понятие литературного языка</t>
+  </si>
+  <si>
+    <t>Литературная норма</t>
+  </si>
+  <si>
+    <t>Устная и письменная формы русского литературного языка</t>
+  </si>
+  <si>
+    <t>Стилевое расслоение языковых средств</t>
+  </si>
+  <si>
+    <t>Функциональные стили русского языка</t>
+  </si>
+  <si>
+    <t>Стилистическая окраска слов</t>
+  </si>
+  <si>
+    <t>Экспрессивные стили</t>
+  </si>
+  <si>
+    <t>Глава 2. Использование языковых средств в функциональных стилях</t>
+  </si>
+  <si>
+    <t>Разговорный стиль</t>
+  </si>
+  <si>
+    <t>Книжные стили русского языка</t>
+  </si>
+  <si>
+    <t>Общая характеристика</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Научный стиль</t>
+  </si>
+  <si>
+    <t>Публицистический стиль</t>
+  </si>
+  <si>
+    <t>Официально-деловой стиль</t>
+  </si>
+  <si>
+    <t>Упражнения</t>
+  </si>
+  <si>
+    <t>Раздел II. Трудности русской орфографии и пунктуации</t>
+  </si>
+  <si>
+    <t>Глава 1. Правописание</t>
+  </si>
+  <si>
+    <t>Графика</t>
+  </si>
+  <si>
+    <t>Особенности употребления некоторых букв</t>
+  </si>
+  <si>
+    <t>Употребление ь и ъ как разделительных знаков</t>
+  </si>
+  <si>
+    <t>Употребление ъ при обозначении на письме мягкости согласных</t>
+  </si>
+  <si>
+    <t>Ю5</t>
+  </si>
+  <si>
+    <t>Употребление ъ для обозначения грамматических форм</t>
+  </si>
+  <si>
+    <t>Буквы е, ё, ю, я</t>
+  </si>
+  <si>
+    <t>Буква э</t>
+  </si>
+  <si>
+    <t>Слоговой принцип русской графики</t>
+  </si>
+  <si>
+    <t>Орфография</t>
+  </si>
+  <si>
+    <t>Принципы русской орфографии</t>
+  </si>
+  <si>
+    <t>Правописание гласных</t>
+  </si>
+  <si>
+    <t>Правописание согласных</t>
+  </si>
+  <si>
+    <t>Правописание приставок</t>
+  </si>
+  <si>
+    <t>Правописание сложных слов</t>
+  </si>
+  <si>
+    <t>Правописание частей речи</t>
+  </si>
+  <si>
+    <t>Глава 2. Пунктуация</t>
+  </si>
+  <si>
+    <t>Знаки препинания</t>
+  </si>
+  <si>
+    <t>Знаки препинания в простом предложении</t>
+  </si>
+  <si>
+    <t>Тире между подлежащим и сказуемым</t>
+  </si>
+  <si>
+    <t>Тире в неполном предложении</t>
+  </si>
+  <si>
+    <t>Интонационное и соединительное тире</t>
+  </si>
+  <si>
+    <t>Знаки препинания в предложениях с однородными членами</t>
+  </si>
+  <si>
+    <t>Знаки препинания в предложениях с обособленными членами</t>
+  </si>
+  <si>
+    <t>Знаки препинания в предложениях с уточняющими, пояснительными и присоединительными членами предложения</t>
+  </si>
+  <si>
+    <t>Знаки препинания при словах, грамматически не связанных с членами предложения</t>
+  </si>
+  <si>
+    <t>Знаки препинания в сложном предложении</t>
+  </si>
+  <si>
+    <t>Знаки препинания при прямой речи</t>
+  </si>
+  <si>
+    <t>Сочетания знаков препинания</t>
+  </si>
+  <si>
+    <t>Раздел III. Основы красноречия</t>
+  </si>
+  <si>
+    <t>Глава 1. Содержательность речи</t>
+  </si>
+  <si>
+    <t>Понятие красноречия</t>
+  </si>
+  <si>
+    <t>Информативность речи</t>
+  </si>
+  <si>
+    <t>Многословие</t>
+  </si>
+  <si>
+    <t>Длина предложения</t>
+  </si>
+  <si>
+    <t>Глава 2. Точность, ясность речи</t>
+  </si>
+  <si>
+    <t>Точность словоупотребления</t>
+  </si>
+  <si>
+    <t>Стилистическая оценка диалектизмов, жаргонизмов</t>
+  </si>
+  <si>
+    <t>Стилистическая оценка заимствованных слов</t>
+  </si>
+  <si>
+    <t>Точность словоизменения и формообразования</t>
+  </si>
+  <si>
+    <t>Ясность синтаксических конструкций</t>
+  </si>
+  <si>
+    <t>Глава 3. Богатство речи</t>
+  </si>
+  <si>
+    <t>Лексика</t>
+  </si>
+  <si>
+    <t>Многообразие значений слова</t>
+  </si>
+  <si>
+    <t>Омонимия</t>
+  </si>
+  <si>
+    <t>Игра слов</t>
+  </si>
+  <si>
+    <t>Лексическая синонимия</t>
+  </si>
+  <si>
+    <t>Антонимия</t>
+  </si>
+  <si>
+    <t>Паронимия</t>
+  </si>
+  <si>
+    <t>Стилистические возможности словообразования</t>
+  </si>
+  <si>
+    <t>Стилистическое использование частей речи</t>
+  </si>
+  <si>
+    <t>Многообразие синтаксических конструкций</t>
+  </si>
+  <si>
+    <t>Глава 4. Правильность речи</t>
+  </si>
+  <si>
+    <t>Лексическая сочетаемость</t>
+  </si>
+  <si>
+    <t>Правильное употребление фразеологизмов</t>
+  </si>
+  <si>
+    <t>Грамматическая правильность речи</t>
+  </si>
+  <si>
+    <t>Вариантные формы имени существительного</t>
+  </si>
+  <si>
+    <t>Вариантные формы имени прилагательного</t>
+  </si>
+  <si>
+    <t>Вариантные формы имени числительного</t>
+  </si>
+  <si>
+    <t>Вариантные формы местоимения</t>
+  </si>
+  <si>
+    <t>Вариантные формы глагола</t>
+  </si>
+  <si>
+    <t>Порядок слов в предложении</t>
+  </si>
+  <si>
+    <t>Варианты грамматической связи подлежащего и сказуемого</t>
+  </si>
+  <si>
+    <t>Варианты согласования определений и приложений</t>
+  </si>
+  <si>
+    <t>Варианты, управления</t>
+  </si>
+  <si>
+    <t>Правильное построение предложений</t>
+  </si>
+  <si>
+    <t>Глава 5. Литературное произношение</t>
+  </si>
+  <si>
+    <t>Что такое орфоэпия</t>
+  </si>
+  <si>
+    <t>Стили произношения</t>
+  </si>
+  <si>
+    <t>Произношение безударных гласных звуков</t>
+  </si>
+  <si>
+    <t>Произношение согласных звуков</t>
+  </si>
+  <si>
+    <t>Особенности произношения иностранных слов</t>
+  </si>
+  <si>
+    <t>Как звучат имена и отчества</t>
+  </si>
+  <si>
+    <t>Литературные ударения</t>
+  </si>
+  <si>
+    <t>Глава 6. Логичность речи</t>
+  </si>
+  <si>
+    <t>Логические ошибки в словоупотреблении</t>
+  </si>
+  <si>
+    <t>Логические ошибки в синтаксических конструкциях</t>
+  </si>
+  <si>
+    <t>Соблюдение законов логики</t>
+  </si>
+  <si>
+    <t>Глава 7. Основы мастерства публичного выступления</t>
+  </si>
+  <si>
+    <t>Оратор и его аудитория</t>
+  </si>
+  <si>
+    <t>Композиция публичного выступления</t>
+  </si>
+  <si>
+    <t>Приемы изложения и объяснения содержания речи</t>
+  </si>
+  <si>
+    <t>Аргументация в ораторской речи</t>
+  </si>
+  <si>
+    <t>Монолог и диалог в публичных выступлениях</t>
+  </si>
+  <si>
+    <t>Контакт оратора с аудиторией</t>
+  </si>
+  <si>
+    <t>Как готовиться к выступлению</t>
+  </si>
+  <si>
+    <t>Русский язык и культура речи</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +631,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFEF6A01"/>
       <name val="Roboto"/>
       <charset val="204"/>
     </font>
@@ -346,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -355,6 +685,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -671,15 +1004,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B6F07E-7664-4B92-94A6-07955332FB49}">
-  <dimension ref="A1:CO93"/>
+  <dimension ref="A1:HD215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:93" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:212" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>83</v>
       </c>
@@ -960,7 +1293,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:93" ht="253.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:212" ht="253.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
@@ -1007,7 +1340,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:93" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:212" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -1192,345 +1525,1340 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:93" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="4" spans="1:212" ht="346.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="2">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="2">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="2">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="2">
+        <v>14</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>17</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" s="2">
+        <v>18</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U4" s="2">
+        <v>21</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W4" s="2">
+        <v>26</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>58</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>103</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>104</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>104</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>104</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>104</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>105</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>106</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>106</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>107</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>107</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>107</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK4" s="2">
+        <v>110</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BM4" s="2">
+        <v>116</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>120</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>121</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS4" s="2">
+        <v>124</v>
+      </c>
+      <c r="BT4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>142</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>142</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY4" s="2">
+        <v>144</v>
+      </c>
+      <c r="BZ4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="CA4" s="2">
+        <v>144</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC4" s="2">
+        <v>146</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE4" s="2">
+        <v>147</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG4" s="2">
+        <v>147</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="CI4" s="2">
+        <v>155</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="CK4" s="2">
+        <v>162</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="CM4" s="2">
+        <v>164</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO4" s="2">
+        <v>169</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ4" s="2">
+        <v>180</v>
+      </c>
+      <c r="CR4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CS4" s="2">
+        <v>181</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CU4" s="2">
+        <v>183</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="CW4" s="2">
+        <v>247</v>
+      </c>
+      <c r="CX4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="CY4" s="2">
+        <v>248</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DA4" s="2">
+        <v>248</v>
+      </c>
+      <c r="DB4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="DC4" s="2">
+        <v>249</v>
+      </c>
+      <c r="DD4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="DE4" s="2">
+        <v>250</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="DG4" s="2">
+        <v>253</v>
+      </c>
+      <c r="DH4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="DI4" s="2">
+        <v>256</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK4" s="2">
+        <v>256</v>
+      </c>
+      <c r="DL4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="DM4" s="2">
+        <v>258</v>
+      </c>
+      <c r="DN4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="DO4" s="2">
+        <v>259</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="DQ4" s="2">
+        <v>261</v>
+      </c>
+      <c r="DR4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="DS4" s="2">
+        <v>263</v>
+      </c>
+      <c r="DT4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="DU4" s="2">
+        <v>265</v>
+      </c>
+      <c r="DV4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="DW4" s="2">
+        <v>265</v>
+      </c>
+      <c r="DX4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="DY4" s="2">
+        <v>266</v>
+      </c>
+      <c r="DZ4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EA4" s="2">
+        <v>267</v>
+      </c>
+      <c r="EB4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EC4" s="2">
+        <v>268</v>
+      </c>
+      <c r="ED4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EE4" s="2">
+        <v>270</v>
+      </c>
+      <c r="EF4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="EG4" s="2">
+        <v>273</v>
+      </c>
+      <c r="EH4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="EI4" s="2">
+        <v>275</v>
+      </c>
+      <c r="EJ4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="EK4" s="2">
+        <v>277</v>
+      </c>
+      <c r="EL4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="EM4" s="2">
+        <v>279</v>
+      </c>
+      <c r="EN4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="EO4" s="2">
+        <v>293</v>
+      </c>
+      <c r="EP4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="EQ4" s="2">
+        <v>297</v>
+      </c>
+      <c r="ER4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="ES4" s="2">
+        <v>297</v>
+      </c>
+      <c r="ET4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="EU4" s="2">
+        <v>298</v>
+      </c>
+      <c r="EV4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="EW4" s="2">
+        <v>300</v>
+      </c>
+      <c r="EX4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="EY4" s="2">
+        <v>300</v>
+      </c>
+      <c r="EZ4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FA4" s="2">
+        <v>305</v>
+      </c>
+      <c r="FB4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FC4" s="2">
+        <v>307</v>
+      </c>
+      <c r="FD4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FE4" s="2">
+        <v>308</v>
+      </c>
+      <c r="FF4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FG4" s="2">
+        <v>309</v>
+      </c>
+      <c r="FH4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FI4" s="2">
+        <v>312</v>
+      </c>
+      <c r="FJ4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FK4" s="2">
+        <v>315</v>
+      </c>
+      <c r="FL4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FM4" s="2">
+        <v>320</v>
+      </c>
+      <c r="FN4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FO4" s="2">
+        <v>322</v>
+      </c>
+      <c r="FP4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FQ4" s="2">
+        <v>326</v>
+      </c>
+      <c r="FR4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FS4" s="2">
+        <v>332</v>
+      </c>
+      <c r="FT4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FU4" s="2">
+        <v>332</v>
+      </c>
+      <c r="FV4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FW4" s="2">
+        <v>332</v>
+      </c>
+      <c r="FX4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FY4" s="2">
+        <v>333</v>
+      </c>
+      <c r="FZ4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="GA4" s="2">
+        <v>334</v>
+      </c>
+      <c r="GB4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="GC4" s="2">
+        <v>334</v>
+      </c>
+      <c r="GD4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="GE4" s="2">
+        <v>334</v>
+      </c>
+      <c r="GF4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="GG4" s="2">
+        <v>336</v>
+      </c>
+      <c r="GH4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GI4" s="2">
+        <v>338</v>
+      </c>
+      <c r="GJ4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GK4" s="2">
+        <v>338</v>
+      </c>
+      <c r="GL4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GM4" s="2">
+        <v>342</v>
+      </c>
+      <c r="GN4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GO4" s="2">
+        <v>346</v>
+      </c>
+      <c r="GP4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GQ4" s="2">
+        <v>348</v>
+      </c>
+      <c r="GR4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GS4" s="2">
+        <v>348</v>
+      </c>
+      <c r="GT4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GU4" s="2">
+        <v>349</v>
+      </c>
+      <c r="GV4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GW4" s="2">
+        <v>352</v>
+      </c>
+      <c r="GX4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GY4" s="2">
+        <v>354</v>
+      </c>
+      <c r="GZ4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="HA4" s="2">
+        <v>355</v>
+      </c>
+      <c r="HB4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="HC4" s="2">
+        <v>356</v>
+      </c>
+      <c r="HD4" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:212" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:212" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:212" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:212" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:212" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:212" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:212" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:212" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:212" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:212" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:212" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:212" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="1"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="1"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="1"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2"/>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+      <c r="A33" s="1"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2"/>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
+      <c r="A35" s="1"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2"/>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1"/>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="2"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
+      <c r="A39" s="1"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="2"/>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
+      <c r="A41" s="1"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="2"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="1"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="2"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="2"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="1"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="2"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="1"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="2"/>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="1"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="A52" s="2"/>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="1"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
+      <c r="A54" s="2"/>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="1"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="2"/>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="1"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="2"/>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="1"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="2"/>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="1"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="2"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
+      <c r="A67" s="1"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="2"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
+      <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
+      <c r="A73" s="1"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
+      <c r="A75" s="1"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
+      <c r="A77" s="1"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
+      <c r="A79" s="1"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="1"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="1"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
+      <c r="A85" s="1"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
+      <c r="A86" s="2"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="A87" s="1"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="1"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
+      <c r="A91" s="1"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/spisok_knig.xlsx
+++ b/spisok_knig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Competence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE0F667-9760-42F8-8604-ED0AAFA4D36D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA4BBF6-3C49-438A-A3A6-CE0AA0CBACEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4470" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{D4ED359D-3E62-4B71-943D-40BC68E4524F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="298">
   <si>
     <t>Глава 1. Содержание и основные понятия маркетинга</t>
   </si>
@@ -613,13 +613,325 @@
   </si>
   <si>
     <t>Русский язык и культура речи</t>
+  </si>
+  <si>
+    <t>Информационные технологии в менеджменте</t>
+  </si>
+  <si>
+    <t>Пакет облачных сервисов «Google Apps», электронное портфолио</t>
+  </si>
+  <si>
+    <t>2 «Google Apps», текстовый процессор Google Doc</t>
+  </si>
+  <si>
+    <t>3 «Google Apps», табличный процессор Google Sheets</t>
+  </si>
+  <si>
+    <t>4 Программное обеспечение создания, представления, передачи и хранения презентаций</t>
+  </si>
+  <si>
+    <t>5 Программные продукты для структурирования и визуализации информации</t>
+  </si>
+  <si>
+    <t>6 Поисковые системы интернета</t>
+  </si>
+  <si>
+    <t>7 Браузеры</t>
+  </si>
+  <si>
+    <t>8 Электронный учебный реферат</t>
+  </si>
+  <si>
+    <t>9 Электронные библиотеки в Интернете</t>
+  </si>
+  <si>
+    <t>10 Научные электронные библиотеки</t>
+  </si>
+  <si>
+    <t>11 Электронные онлайн-сервисы государственных библиотек</t>
+  </si>
+  <si>
+    <t>12 Коммерческие электронные библиотечные системы</t>
+  </si>
+  <si>
+    <t>13 Экспертные функции системы Консультант Плюс</t>
+  </si>
+  <si>
+    <t>14 Управление проектами: работа в Project Libre</t>
+  </si>
+  <si>
+    <t>15 Онлайн-сервисы управления проектами</t>
+  </si>
+  <si>
+    <t>работа в Gannter for Google Drive</t>
+  </si>
+  <si>
+    <t>16 Онлайн-сервисы управления проектами / мета поиск авиабилетов и отелей</t>
+  </si>
+  <si>
+    <t>работа в Project Kajser</t>
+  </si>
+  <si>
+    <t>17 Управление проектами / прогнозирование эффективности проекта</t>
+  </si>
+  <si>
+    <t>18 Программное обеспечение моделирования бизнес-процессов</t>
+  </si>
+  <si>
+    <t>19 Онлайн-сервисы моделирования бизнес-процессов</t>
+  </si>
+  <si>
+    <t>20 Онлайн-инструменты бизнес-планирования</t>
+  </si>
+  <si>
+    <t>21 Онлайн-инструменты имитации бизнес-процессов</t>
+  </si>
+  <si>
+    <t>22 Веб-сервис и набор программного обеспечения для создания и хранения заметок Evernote</t>
+  </si>
+  <si>
+    <t>23 Информационные угрозы для пользователей интернета</t>
+  </si>
+  <si>
+    <t>24 Информационные технологии в управлении предприятием</t>
+  </si>
+  <si>
+    <t>Программирование и численные методы</t>
+  </si>
+  <si>
+    <t>1.1. Структура ЭВМ и се внешние устройства. Представление информации в ЭВМ</t>
+  </si>
+  <si>
+    <t>1.1.1. Общая схема ЭВМ</t>
+  </si>
+  <si>
+    <t>1.1.2. Внешние устройства ЭВМ</t>
+  </si>
+  <si>
+    <t>1.1.3. Память ЭВМ. Организация оперативной памяти</t>
+  </si>
+  <si>
+    <t>1.1.4. Центральный процессор. Машгашыс команды. Схема работы центрального процессора</t>
+  </si>
+  <si>
+    <t>1.1.5. Представление информации в памяти ЭВМ. Способы хранения целых чисел и символов</t>
+  </si>
+  <si>
+    <t>1.2. Алгоритмы и процессы обработки информации</t>
+  </si>
+  <si>
+    <t>1.2.1. Понятие алгоритма</t>
+  </si>
+  <si>
+    <t>1.2.2. Алгоритм Евклида</t>
+  </si>
+  <si>
+    <t>1 2.3. Свойства алгоритмов</t>
+  </si>
+  <si>
+    <t>1.2.4. Способы представления алгоритмов. Блок-схемы</t>
+  </si>
+  <si>
+    <t>1.2.5. Понятие машинной программы</t>
+  </si>
+  <si>
+    <t>1.3. Алгоритмические языки</t>
+  </si>
+  <si>
+    <t>1.3.1. Классификая языков программирования. Процедурные и декларативные языки</t>
+  </si>
+  <si>
+    <t>1.3.2. Поколения языков программирования. Объектная ориентация в программировании</t>
+  </si>
+  <si>
+    <t>1.4. Язык программирования Бейсик</t>
+  </si>
+  <si>
+    <t>1.4.1. Алфавит языка. Служебные слова. Идентификаторы</t>
+  </si>
+  <si>
+    <t>1.4.2. Переменные и константы</t>
+  </si>
+  <si>
+    <t>1.4.3. Типы данных</t>
+  </si>
+  <si>
+    <t>1.4.4. Массивы</t>
+  </si>
+  <si>
+    <t>1.4.5. Комментарии</t>
+  </si>
+  <si>
+    <t>1.4.6. Операторы ввода/вывода</t>
+  </si>
+  <si>
+    <t>1.4.7. Выражения. Оператор присваивания</t>
+  </si>
+  <si>
+    <t>1.4.8. Условный оператор</t>
+  </si>
+  <si>
+    <t>1.4.9. Операторы цикла</t>
+  </si>
+  <si>
+    <t>1.4.10. Процедуры-функции и процедуры-подпрограммы</t>
+  </si>
+  <si>
+    <t>1.4.11. Разработка программ печати таблиц значений с использованием аппарата подпрограмм и функций</t>
+  </si>
+  <si>
+    <t>1.5. Методы разработки сложных программ. Тестирование и отладка программ</t>
+  </si>
+  <si>
+    <t>1.5.1. Понятие сложной программы</t>
+  </si>
+  <si>
+    <t>1.5.2. Метод программирования сверху-вниз</t>
+  </si>
+  <si>
+    <t>1.5.3. Тестирование и отладка программ</t>
+  </si>
+  <si>
+    <t>Глава 2. Численные методы</t>
+  </si>
+  <si>
+    <t>2.1. Системы линейных алгебраических уравнений</t>
+  </si>
+  <si>
+    <t>2.1.1. Формулы Крамера</t>
+  </si>
+  <si>
+    <t>2.1.2. Метод Гаусса</t>
+  </si>
+  <si>
+    <t>2.1.3. Уменьшение ошибок округления</t>
+  </si>
+  <si>
+    <t>2.1.4. Разработка программы решения системы линейных алгебраических уравнений методом Гаусса. Тестирование и отладка программы</t>
+  </si>
+  <si>
+    <t>2.2. Численные методы решения уравнений</t>
+  </si>
+  <si>
+    <t>2.2.1. Уравнения. Теорема о существовании корня непрерывной функции</t>
+  </si>
+  <si>
+    <t>2.2.2. Метод вилки (метод бисекции)</t>
+  </si>
+  <si>
+    <t>2.2.3. Метод итераций (метод последовательных приближений)</t>
+  </si>
+  <si>
+    <t>2.2.4. Метод касательных (метод Ньютона)</t>
+  </si>
+  <si>
+    <t>2.2.5. Сравнение эффективности методов</t>
+  </si>
+  <si>
+    <t>2.3. Приближение функций</t>
+  </si>
+  <si>
+    <t>2.3.1. Интерполирование</t>
+  </si>
+  <si>
+    <t>2.3.2. Метод наименьших квадратов</t>
+  </si>
+  <si>
+    <t>2.4. Численное интегрирование</t>
+  </si>
+  <si>
+    <t>2.4.1. Понятие определенного интеграла</t>
+  </si>
+  <si>
+    <t>2.4.2. Формула Ньютона-Лейбница</t>
+  </si>
+  <si>
+    <t>2.4.3. Квадратурные формулы прямоугольников, трапеций и Симпсона</t>
+  </si>
+  <si>
+    <t>2.4.4. Построение первообразной с помощью численного интегрирования</t>
+  </si>
+  <si>
+    <t>2.4.5. Программа вычисисления интеграла методом трапеции</t>
+  </si>
+  <si>
+    <t>2.5. Численное решение дифференциальных уравнений</t>
+  </si>
+  <si>
+    <t>2.5.1. Задачи, приводящие к дифференциальным уравнениям</t>
+  </si>
+  <si>
+    <t>2.5.2. Дифференциальные уравнения первого порядка. Задача Коши</t>
+  </si>
+  <si>
+    <t>2.5.3. Метод ломаных Эйлера</t>
+  </si>
+  <si>
+    <t>2.5.4. Метод Рунге-Кутта</t>
+  </si>
+  <si>
+    <t>2.5.5. Программа, реализующая метод Рунге-Кутта</t>
+  </si>
+  <si>
+    <t>2.6. Задачи оптимизации</t>
+  </si>
+  <si>
+    <t>2.6.1. Одномерные задачи оптимизации</t>
+  </si>
+  <si>
+    <t>2.6.2. Численное решение одномерных задач оптимизации</t>
+  </si>
+  <si>
+    <t>2.6.3. Многомерные задачи оптимизации</t>
+  </si>
+  <si>
+    <t>2.6.4. Численное решение многомерных задач оптимизации. Понятие о методе градиентного спуска</t>
+  </si>
+  <si>
+    <t>Глава 3. Обработка информации на ЭВМ</t>
+  </si>
+  <si>
+    <t>3.1. Технологии обработки информации</t>
+  </si>
+  <si>
+    <t>3.1.1. Понятие о мультимедиа технологии</t>
+  </si>
+  <si>
+    <t>3.1.2. Современные офисные пакеты программ. Пакет Microsoft Office</t>
+  </si>
+  <si>
+    <t>3.1.3. Текстовый процессор и его возможности</t>
+  </si>
+  <si>
+    <t>3.1.4. Электронные таблицы, деловая графика</t>
+  </si>
+  <si>
+    <t>3.1.5. Вазы данных. Организация информации. Доступ к данным. Запросы</t>
+  </si>
+  <si>
+    <t>3.2. Сети ЭВМ. Понятие о глобальной сети Интернет</t>
+  </si>
+  <si>
+    <t>3.2.1. Понятие сети ЭВМ. Способы организации сетей ЭВМ. Классы сетей</t>
+  </si>
+  <si>
+    <t>3.2.2. Глобальные сети. История сети Интернет. Основные способы работы с Интернет</t>
+  </si>
+  <si>
+    <t>3.2.3. Электронная почта. Телеконференции</t>
+  </si>
+  <si>
+    <t>3.2.4. Всемирная «паутина». Организация информации в виде гипертекста</t>
+  </si>
+  <si>
+    <t>3.2.5. Поиск информации в Интернет. Поисковые серверы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +943,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFEF6A01"/>
       <name val="Roboto"/>
       <charset val="204"/>
     </font>
@@ -676,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -688,6 +1006,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B6F07E-7664-4B92-94A6-07955332FB49}">
   <dimension ref="A1:HD215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,13 +2484,614 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:212" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:212" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:212" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="2">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="2">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K5" s="2">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M5" s="2">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O5" s="2">
+        <v>23</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>26</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="S5" s="2">
+        <v>31</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" s="2">
+        <v>40</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="W5" s="2">
+        <v>43</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>49</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>70</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>72</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>74</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>77</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>79</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:212" ht="406.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="2">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I6" s="2">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="2">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M6" s="2">
+        <v>14</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>18</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="S6" s="2">
+        <v>19</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="U6" s="2">
+        <v>19</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="W6" s="2">
+        <v>20</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>28</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>29</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>31</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>34</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>36</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>39</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>42</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>42</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>47</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>52</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>54</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>58</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>66</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>69</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>69</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>70</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BK6" s="2">
+        <v>71</v>
+      </c>
+      <c r="BL6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BM6" s="2">
+        <v>74</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="BO6" s="2">
+        <v>74</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>74</v>
+      </c>
+      <c r="BR6" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>75</v>
+      </c>
+      <c r="BT6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BU6" s="2">
+        <v>78</v>
+      </c>
+      <c r="BV6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BW6" s="2">
+        <v>80</v>
+      </c>
+      <c r="BX6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY6" s="2">
+        <v>87</v>
+      </c>
+      <c r="BZ6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="CA6" s="2">
+        <v>87</v>
+      </c>
+      <c r="CB6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="CC6" s="2">
+        <v>89</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="CE6" s="2">
+        <v>93</v>
+      </c>
+      <c r="CF6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CG6" s="2">
+        <v>96</v>
+      </c>
+      <c r="CH6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="CI6" s="2">
+        <v>100</v>
+      </c>
+      <c r="CJ6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="CK6" s="2">
+        <v>101</v>
+      </c>
+      <c r="CL6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="CM6" s="2">
+        <v>102</v>
+      </c>
+      <c r="CN6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="CO6" s="2">
+        <v>106</v>
+      </c>
+      <c r="CP6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="CQ6" s="2">
+        <v>111</v>
+      </c>
+      <c r="CR6" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="CS6" s="2">
+        <v>111</v>
+      </c>
+      <c r="CT6" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="CU6" s="2">
+        <v>113</v>
+      </c>
+      <c r="CV6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="CW6" s="2">
+        <v>114</v>
+      </c>
+      <c r="CX6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="CY6" s="2">
+        <v>122</v>
+      </c>
+      <c r="CZ6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="DA6" s="2">
+        <v>125</v>
+      </c>
+      <c r="DB6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="DC6" s="2">
+        <v>128</v>
+      </c>
+      <c r="DD6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="DE6" s="2">
+        <v>128</v>
+      </c>
+      <c r="DF6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="DG6" s="2">
+        <v>130</v>
+      </c>
+      <c r="DH6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="DI6" s="2">
+        <v>134</v>
+      </c>
+      <c r="DJ6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="DK6" s="2">
+        <v>141</v>
+      </c>
+      <c r="DL6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="DM6" s="2">
+        <v>144</v>
+      </c>
+      <c r="DN6" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="DO6" s="2">
+        <v>147</v>
+      </c>
+      <c r="DP6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="DQ6" s="2">
+        <v>148</v>
+      </c>
+      <c r="DR6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="DS6" s="2">
+        <v>153</v>
+      </c>
+      <c r="DT6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="DU6" s="2">
+        <v>156</v>
+      </c>
+      <c r="DV6" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="DW6" s="2">
+        <v>162</v>
+      </c>
+      <c r="DX6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="DY6" s="2">
+        <v>168</v>
+      </c>
+      <c r="DZ6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="EA6" s="2">
+        <v>168</v>
+      </c>
+      <c r="EB6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="EC6" s="2">
+        <v>168</v>
+      </c>
+      <c r="ED6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="EE6" s="2">
+        <v>170</v>
+      </c>
+      <c r="EF6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="EG6" s="2">
+        <v>171</v>
+      </c>
+      <c r="EH6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="EI6" s="2">
+        <v>178</v>
+      </c>
+      <c r="EJ6" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="EK6" s="2">
+        <v>183</v>
+      </c>
+      <c r="EL6" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="EM6" s="2">
+        <v>190</v>
+      </c>
+      <c r="EN6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="EO6" s="2">
+        <v>190</v>
+      </c>
+      <c r="EP6" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="EQ6" s="2">
+        <v>193</v>
+      </c>
+      <c r="ER6" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="ES6" s="2">
+        <v>194</v>
+      </c>
+      <c r="ET6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="EU6" s="2">
+        <v>199</v>
+      </c>
+      <c r="EV6" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:212" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2216,483 +3138,624 @@
     </row>
     <row r="16" spans="1:212" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="1"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" s="1"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">

--- a/spisok_knig.xlsx
+++ b/spisok_knig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Competence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA4BBF6-3C49-438A-A3A6-CE0AA0CBACEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B206D7E5-B338-4784-A8B1-35CCF71C4D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="2205" windowWidth="21600" windowHeight="11385" xr2:uid="{D4ED359D-3E62-4B71-943D-40BC68E4524F}"/>
+    <workbookView xWindow="5160" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{D4ED359D-3E62-4B71-943D-40BC68E4524F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="357">
   <si>
     <t>Глава 1. Содержание и основные понятия маркетинга</t>
   </si>
@@ -925,13 +925,190 @@
   </si>
   <si>
     <t>3.2.5. Поиск информации в Интернет. Поисковые серверы</t>
+  </si>
+  <si>
+    <t>Оперативное планирование занятий физической культурой</t>
+  </si>
+  <si>
+    <t>1. Общая характеристика оперативного планирования занятий физической культурой</t>
+  </si>
+  <si>
+    <t>2. Основные требования к плану-конспекту занятия</t>
+  </si>
+  <si>
+    <t>3. Методика разработки плана-конспекта занятия</t>
+  </si>
+  <si>
+    <t>4. Технологическая карта занятия по физической культуре</t>
+  </si>
+  <si>
+    <t>Безопасность жизнедеятельности</t>
+  </si>
+  <si>
+    <t>1 Основные положения и принципы обеспечения безопасности</t>
+  </si>
+  <si>
+    <t>1.1 Основные понятия и определения</t>
+  </si>
+  <si>
+    <t>1.2 Квантификация опасностей</t>
+  </si>
+  <si>
+    <t>1.2.1 Типы рисков</t>
+  </si>
+  <si>
+    <t>1.2.2 Концепция приемлемого риска</t>
+  </si>
+  <si>
+    <t>1.3 Методологические основы управления безопасностью</t>
+  </si>
+  <si>
+    <t>2 Негативные факторы воздействия в системе «человек — среда обитания»</t>
+  </si>
+  <si>
+    <t>2.1 Опасность, признаки и источники ее формирования</t>
+  </si>
+  <si>
+    <t>2.2 Виды негативных факторов производственной и бытовой сред</t>
+  </si>
+  <si>
+    <t>2.3 Безопасность и ее виды</t>
+  </si>
+  <si>
+    <t>3 Физиология труда и комфортные условия жизнедеятельности</t>
+  </si>
+  <si>
+    <t>3.1 Эргономика</t>
+  </si>
+  <si>
+    <t>3.2 Психология безопасности деятельности</t>
+  </si>
+  <si>
+    <t>3.3 Анализаторы человека в производственной деятельности</t>
+  </si>
+  <si>
+    <t>3.3.1 Типы анализаторов человека</t>
+  </si>
+  <si>
+    <t>3.4 Классификация основных форм деятельности человека</t>
+  </si>
+  <si>
+    <t>3.5 Классификация условий труда</t>
+  </si>
+  <si>
+    <t>4 Безопасность жизнедеятельности и производственная среда</t>
+  </si>
+  <si>
+    <t>4.1 Освещение</t>
+  </si>
+  <si>
+    <t>4.1.1 Нормирование освещения</t>
+  </si>
+  <si>
+    <t>4.1.2 Инфракрасное излучение</t>
+  </si>
+  <si>
+    <t>4.1.3 Ультрафиолетовое излучение</t>
+  </si>
+  <si>
+    <t>4.2 Микроклимат</t>
+  </si>
+  <si>
+    <t>4.2.1 Гигиеническое нормирование параметров микроклимата</t>
+  </si>
+  <si>
+    <t>4.3 Вредные вещества в воздухе рабочей зоны</t>
+  </si>
+  <si>
+    <t>4.4 Электромагнитное поле</t>
+  </si>
+  <si>
+    <t>4.4.1 Нормирование электромагнитных полей</t>
+  </si>
+  <si>
+    <t>4.5 Шум и вибрация</t>
+  </si>
+  <si>
+    <t>4.5.1 Шум</t>
+  </si>
+  <si>
+    <t>4.5.2 Инфразвук</t>
+  </si>
+  <si>
+    <t>4.5.3 Ультразвук</t>
+  </si>
+  <si>
+    <t>4.5.4 Вибрация</t>
+  </si>
+  <si>
+    <t>4.6 Ионизирующие излучения</t>
+  </si>
+  <si>
+    <t>4.7 Механические опасности</t>
+  </si>
+  <si>
+    <t>4.8 Электрический ток</t>
+  </si>
+  <si>
+    <t>4.9 Статическое электричество</t>
+  </si>
+  <si>
+    <t>4.10 Лазерное излучение</t>
+  </si>
+  <si>
+    <t>5 Безопасность в чрезвычайных ситуациях</t>
+  </si>
+  <si>
+    <t>5.1 Основные понятия</t>
+  </si>
+  <si>
+    <t>5.2 Чрезвычайные ситуации природного характера</t>
+  </si>
+  <si>
+    <t>5.3 Чрезвычайные ситуации техногенного характера</t>
+  </si>
+  <si>
+    <t>5.4 Чрезвычайные ситуации экологического характера</t>
+  </si>
+  <si>
+    <t>5.5 Чрезвычайные ситуации социального характера</t>
+  </si>
+  <si>
+    <t>5.6 Чрезвычайные ситуации биологического характера</t>
+  </si>
+  <si>
+    <t>5.7 Единая государственная система предупреждения и ликвидации последствий чрезвычайных ситуаций (РСЧС)</t>
+  </si>
+  <si>
+    <t>6 Охрана труда</t>
+  </si>
+  <si>
+    <t>6.1 Понятие и составные части охраны труда</t>
+  </si>
+  <si>
+    <t>6.2 Понятие и составные части охраны труда</t>
+  </si>
+  <si>
+    <t>6.3 Контроль и надзор за соблюдением законодательства об охране труда. Охрана труда на предприятии</t>
+  </si>
+  <si>
+    <t>6.4 Обучение по охране труда</t>
+  </si>
+  <si>
+    <t>6.5 Расследование и учет несчастных случаев и профессиональных заболеваний</t>
+  </si>
+  <si>
+    <t>7 Принципы оказания первой неотложной медицинской помощи при несчастных случаях</t>
+  </si>
+  <si>
+    <t>7.1 Основные сведения по оказанию первой неотложной медицинской помощи. Первая помощь</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,6 +1120,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFEF6A01"/>
       <name val="Roboto"/>
       <charset val="204"/>
     </font>
@@ -994,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1009,6 +1192,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1327,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B6F07E-7664-4B92-94A6-07955332FB49}">
   <dimension ref="A1:HD215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:DC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3091,17 +3277,359 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:212" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:212" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:212" ht="256.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:212" ht="331.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" s="2">
+        <v>11</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M8" s="2">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O8" s="2">
+        <v>15</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>15</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="S8" s="2">
+        <v>16</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="U8" s="2">
+        <v>20</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="W8" s="2">
+        <v>23</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>31</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>32</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>45</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>47</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>47</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>48</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>50</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>51</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>57</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>60</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>62</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>62</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>65</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>66</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>67</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>69</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>80</v>
+      </c>
+      <c r="BR8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>82</v>
+      </c>
+      <c r="BT8" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>92</v>
+      </c>
+      <c r="BV8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>96</v>
+      </c>
+      <c r="BX8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>103</v>
+      </c>
+      <c r="BZ8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="CA8" s="2">
+        <v>103</v>
+      </c>
+      <c r="CB8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="CC8" s="2">
+        <v>111</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="CE8" s="2">
+        <v>126</v>
+      </c>
+      <c r="CF8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="CG8" s="2">
+        <v>131</v>
+      </c>
+      <c r="CH8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="CI8" s="2">
+        <v>132</v>
+      </c>
+      <c r="CJ8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="CK8" s="2">
+        <v>135</v>
+      </c>
+      <c r="CL8" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="CM8" s="2">
+        <v>141</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="CO8" s="2">
+        <v>146</v>
+      </c>
+      <c r="CP8" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="CQ8" s="2">
+        <v>146</v>
+      </c>
+      <c r="CR8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="CS8" s="2">
+        <v>147</v>
+      </c>
+      <c r="CT8" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="CU8" s="2">
+        <v>148</v>
+      </c>
+      <c r="CV8" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="CW8" s="2">
+        <v>158</v>
+      </c>
+      <c r="CX8" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="CY8" s="2">
+        <v>160</v>
+      </c>
+      <c r="CZ8" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="DA8" s="2">
+        <v>166</v>
+      </c>
+      <c r="DB8" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="DC8" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:212" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>

--- a/spisok_knig.xlsx
+++ b/spisok_knig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Competence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B206D7E5-B338-4784-A8B1-35CCF71C4D62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B1673-E314-4FE0-A272-011DFE504B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{D4ED359D-3E62-4B71-943D-40BC68E4524F}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D4ED359D-3E62-4B71-943D-40BC68E4524F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="408">
   <si>
     <t>Глава 1. Содержание и основные понятия маркетинга</t>
   </si>
@@ -1102,13 +1102,166 @@
   </si>
   <si>
     <t>7.1 Основные сведения по оказанию первой неотложной медицинской помощи. Первая помощь</t>
+  </si>
+  <si>
+    <t>Бизнес-планирование</t>
+  </si>
+  <si>
+    <t>﻿Глава 1. ОПРЕДЕЛЕНИЕ НАПРАВЛЕНИЯ РАЗВИТИЯ ОРГАНИЗАЦИИ</t>
+  </si>
+  <si>
+    <t>1.1. Роль планирования в деятельности организации и формирование ее миссии</t>
+  </si>
+  <si>
+    <t>1.2. Постановка целей и задач организации</t>
+  </si>
+  <si>
+    <t>1.3. Целевое управление организацией</t>
+  </si>
+  <si>
+    <t>Глава 2. АНАЛИЗ ВНЕШНЕЙ СРЕДЫ ОРГАНИЗАЦИИ</t>
+  </si>
+  <si>
+    <t>2.1. Рынок как внешняя среда организации</t>
+  </si>
+  <si>
+    <t>2.2. Анализ отрасли, в которой работает организация</t>
+  </si>
+  <si>
+    <t>2.3. Анализ факторов внешней среды</t>
+  </si>
+  <si>
+    <t>2.4. Оценочная деятельность в бизнесе: объекты, принципы и методы оценки</t>
+  </si>
+  <si>
+    <t>Глава 3. АНАЛИЗ КОНКУРЕНТНЫХ ПОЗИЦИЙ</t>
+  </si>
+  <si>
+    <t>3.1. Формы и методы конкурентных отношений</t>
+  </si>
+  <si>
+    <t>3.2. Определение реальных конкурентов</t>
+  </si>
+  <si>
+    <t>3.3. Анализ конкурентов и конкурентная разведка</t>
+  </si>
+  <si>
+    <t>3.4. Прогнозирование конкурентных ходов</t>
+  </si>
+  <si>
+    <t>Глава 4. АНАЛИЗ ПОТРЕБИТЕЛЕЙ</t>
+  </si>
+  <si>
+    <t>4.1. Сегментирование рынка</t>
+  </si>
+  <si>
+    <t>4.2. Принятие потребителем решения о покупке</t>
+  </si>
+  <si>
+    <t>4.3. Факторы, обусловливающие выбор потребителя</t>
+  </si>
+  <si>
+    <t>4.4. Работа с клиентами-предприятиями</t>
+  </si>
+  <si>
+    <t>Глава 5. АНАЛИЗ ВНУТРЕННЕЙ СРЕДЫ ОРГАНИЗАЦИИ</t>
+  </si>
+  <si>
+    <t>5.1. SWOT-анализ и ситуационный анализ организации</t>
+  </si>
+  <si>
+    <t>5.2. Цепочка ценности организации</t>
+  </si>
+  <si>
+    <t>5.3. Оценка ключевых факторов успеха и конкурентных преимуществ организации</t>
+  </si>
+  <si>
+    <t>Глава 6. ДОКУМЕНТАЛЬНОЕ ОФОРМЛЕНИЕ БИЗНЕС-ПЛАНА</t>
+  </si>
+  <si>
+    <t>6.1. Структура бизнес-плана</t>
+  </si>
+  <si>
+    <t>6.2. Современные программные продукты как технологическая основа бизнес-планирования</t>
+  </si>
+  <si>
+    <t>6.3. Продвижение бизнес-плана на рынок</t>
+  </si>
+  <si>
+    <t>Глава 7. ФИНАНСОВОЕ ПЛАНИРОВАНИЕ</t>
+  </si>
+  <si>
+    <t>7.1. Цель, задачи и организация финансового планирования в организации</t>
+  </si>
+  <si>
+    <t>7.2. Виды финансового планирования и финансовой отчетности</t>
+  </si>
+  <si>
+    <t>Глава 8. ФОРМИРОВАНИЕ СТРАТЕГИИ РАЗВИТИЯ ОРГАНИЗАЦИИ</t>
+  </si>
+  <si>
+    <t>8.1. Адаптивное и стратегическое планирование</t>
+  </si>
+  <si>
+    <t>8.2. Стратегическая пирамида организации</t>
+  </si>
+  <si>
+    <t>8.3. Конкурентные стратегии</t>
+  </si>
+  <si>
+    <t>8.4. Позиционные стратегии</t>
+  </si>
+  <si>
+    <t>Глава 9. УПРАВЛЕНИЕ ТОВАРНЫМ АССОРТИМЕНТОМ</t>
+  </si>
+  <si>
+    <t>9.1. Товарный ассортимент и его характеристики</t>
+  </si>
+  <si>
+    <t>9.2. Жизненный цикл товара</t>
+  </si>
+  <si>
+    <t>9.3. Управление портфелем товара</t>
+  </si>
+  <si>
+    <t>9.4. Разработка новых товаров</t>
+  </si>
+  <si>
+    <t>Глава 10. ОРГАНИЗАЦИОННАЯ СОСТАВЛЯЮЩАЯ БИЗНЕС-ПЛАНИРОВАНИЯ</t>
+  </si>
+  <si>
+    <t>10.1. Разработка организационной структуры предприятия</t>
+  </si>
+  <si>
+    <t>10.2. Влияние лидерства на деятельность организации</t>
+  </si>
+  <si>
+    <t>10.3. Формирование организационной культуры</t>
+  </si>
+  <si>
+    <t>10.4. Роль руководящих работников в деятельности организации</t>
+  </si>
+  <si>
+    <t>Глава 11. УПРАВЛЕНЧЕСКИЕ ПРОБЛЕМЫ, ВОЗНИКАЮЩИЕ В ПРОЦЕССЕ БИЗНЕС-ПЛАНИРОВАНИЯ</t>
+  </si>
+  <si>
+    <t>11.1. Управление кризисными ситуациями</t>
+  </si>
+  <si>
+    <t>11.2. Типичные ошибки в бизнес-планировании</t>
+  </si>
+  <si>
+    <t>11.3. Выбор оптимального стиля управления</t>
+  </si>
+  <si>
+    <t>11.4. Управление временем, или Тайм-менеджмент</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,6 +1273,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFEF6A01"/>
       <name val="Roboto"/>
       <charset val="204"/>
     </font>
@@ -1177,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1195,6 +1354,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1513,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B6F07E-7664-4B92-94A6-07955332FB49}">
   <dimension ref="A1:HD215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:DC8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:CW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3629,458 +3791,758 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:212" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:212" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:212" ht="301.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G9" s="2">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I9" s="2">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K9" s="2">
+        <v>23</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="M9" s="2">
+        <v>23</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O9" s="2">
+        <v>26</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>32</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="S9" s="2">
+        <v>42</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="U9" s="2">
+        <v>51</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="W9" s="2">
+        <v>51</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>56</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>92</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>103</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>103</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>115</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>121</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>128</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>128</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>135</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>138</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BE9" s="2">
+        <v>155</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>155</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>161</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>171</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>171</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>175</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>180</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>185</v>
+      </c>
+      <c r="BT9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>189</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>189</v>
+      </c>
+      <c r="BX9" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="BY9" s="2">
+        <v>191</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="CA9" s="2">
+        <v>196</v>
+      </c>
+      <c r="CB9" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="CC9" s="2">
+        <v>204</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="CE9" s="2">
+        <v>211</v>
+      </c>
+      <c r="CF9" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="CG9" s="2">
+        <v>211</v>
+      </c>
+      <c r="CH9" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="CI9" s="2">
+        <v>220</v>
+      </c>
+      <c r="CJ9" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="CK9" s="2">
+        <v>231</v>
+      </c>
+      <c r="CL9" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="CM9" s="2">
+        <v>239</v>
+      </c>
+      <c r="CN9" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="CO9" s="2">
+        <v>245</v>
+      </c>
+      <c r="CP9" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="CQ9" s="2">
+        <v>245</v>
+      </c>
+      <c r="CR9" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="CS9" s="2">
+        <v>250</v>
+      </c>
+      <c r="CT9" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="CU9" s="2">
+        <v>253</v>
+      </c>
+      <c r="CV9" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="CW9" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:212" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:212" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:212" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:212" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:212" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:212" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:212" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
+      <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="1"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
+      <c r="B43" s="1"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
+      <c r="B55" s="1"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
+      <c r="B57" s="1"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="1"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
+      <c r="B61" s="1"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
+      <c r="B63" s="1"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="2"/>
+      <c r="B65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="2"/>
+      <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="2"/>
+      <c r="B69" s="1"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="2"/>
+      <c r="B71" s="1"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="2"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="2"/>
+      <c r="B73" s="1"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="2"/>
+      <c r="B75" s="1"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="2"/>
+      <c r="B77" s="1"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="2"/>
+      <c r="B79" s="1"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="2"/>
+      <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="2"/>
+      <c r="B83" s="1"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="1"/>
+      <c r="B84" s="2"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="2"/>
+      <c r="B85" s="1"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="1"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
-      <c r="B87" s="2"/>
+      <c r="B87" s="1"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="2"/>
+      <c r="B89" s="1"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
+      <c r="B91" s="1"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="1"/>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
+      <c r="B93" s="1"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="1"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
+      <c r="B95" s="1"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="1"/>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="2"/>
+      <c r="B97" s="1"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="1"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="1"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="1"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="2"/>
+      <c r="B101" s="1"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="B102" s="1"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
+      <c r="B103" s="1"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="B104" s="1"/>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
+      <c r="B105" s="1"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
-      <c r="B106" s="1"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
-      <c r="B107" s="2"/>
+      <c r="B107" s="1"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>

--- a/spisok_knig.xlsx
+++ b/spisok_knig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Competence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854B1673-E314-4FE0-A272-011DFE504B57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258AEACD-0DA0-4750-8A1F-800F4C3610EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D4ED359D-3E62-4B71-943D-40BC68E4524F}"/>
+    <workbookView xWindow="2955" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{D4ED359D-3E62-4B71-943D-40BC68E4524F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="819">
   <si>
     <t>Глава 1. Содержание и основные понятия маркетинга</t>
   </si>
@@ -1255,13 +1255,1246 @@
   </si>
   <si>
     <t>11.4. Управление временем, или Тайм-менеджмент</t>
+  </si>
+  <si>
+    <t>Маркетинг. Практикум</t>
+  </si>
+  <si>
+    <t>Предисловие</t>
+  </si>
+  <si>
+    <t>Глава 1. СОВРЕМЕННАЯ КОНЦЕПЦИЯ МАРКЕТИНГА</t>
+  </si>
+  <si>
+    <t>1.1 Структура главы</t>
+  </si>
+  <si>
+    <t>1.2. Краткое содержание главы</t>
+  </si>
+  <si>
+    <t>1.3. Задачи, упражнения, тесты и ситуации</t>
+  </si>
+  <si>
+    <t>Глава 2. ИНФОРМАЦИОННОЕ ОБЕСПЕЧЕНИЕ МАРКЕТИНГОВОЙ ДЕЯТЕЛЬНОСТИ</t>
+  </si>
+  <si>
+    <t>2.1. Структура главы</t>
+  </si>
+  <si>
+    <t>2.2. Краткое содержание главы</t>
+  </si>
+  <si>
+    <t>2.3. Задачи, упражнения, тесты и ситуации</t>
+  </si>
+  <si>
+    <t>Глава 3. ВОЗМОЖНОСТИ ВЫХОДА ПРЕДПРИЯТИЯ НА ВНЕШНИЕ РЫНКИ</t>
+  </si>
+  <si>
+    <t>3.1. Струрктура главы</t>
+  </si>
+  <si>
+    <t>3.2. Краткое содержание главы</t>
+  </si>
+  <si>
+    <t>3.3. Задачи, упражнения, тесты и ситтации</t>
+  </si>
+  <si>
+    <t>Глава 4. ПОВЕДЕНИЕ ПОКУПАТЕЛЕЙ И ПОТРЕБИТЕЛЕЙ</t>
+  </si>
+  <si>
+    <t>4.1. Структура главы</t>
+  </si>
+  <si>
+    <t>4.2. Краткое содержание главы</t>
+  </si>
+  <si>
+    <t>4.3. Задачи, упражнения, тесты и ситуации</t>
+  </si>
+  <si>
+    <t>Глава 5. ТОВАРНАЯ ПОЛИТИКА</t>
+  </si>
+  <si>
+    <t>5.1. Структура главы</t>
+  </si>
+  <si>
+    <t>5.2. Краткое содержание главы</t>
+  </si>
+  <si>
+    <t>5.3. Задачи, упражнения, тесты и ситтации</t>
+  </si>
+  <si>
+    <t>Глава 6. РАСПРЕДЕЛЕНИЕ ТОВАРОВ</t>
+  </si>
+  <si>
+    <t>6.1. Структура главы</t>
+  </si>
+  <si>
+    <t>6.2. Краткое содержание главы</t>
+  </si>
+  <si>
+    <t>6.3. Задачи, упражнения, тесты и ситуации</t>
+  </si>
+  <si>
+    <t>Глава 7. ЦЕНА</t>
+  </si>
+  <si>
+    <t>7.1. Структура главы</t>
+  </si>
+  <si>
+    <t>7.2. Краткое содержание главы</t>
+  </si>
+  <si>
+    <t>7.3. Задачи, упражнения, тесты и ситтации</t>
+  </si>
+  <si>
+    <t>Глава 8. ПРОДВИЖЕНИЕ ТОВАРОВ</t>
+  </si>
+  <si>
+    <t>8.1. Структура главы</t>
+  </si>
+  <si>
+    <t>8.2. Краткое содержание главы</t>
+  </si>
+  <si>
+    <t>8.3. Задачи, упражнения, тесты и ситуации</t>
+  </si>
+  <si>
+    <t>Глава 9. ПРЯМОЙ МАРКЕТИНГ</t>
+  </si>
+  <si>
+    <t>9.1. Структура главы</t>
+  </si>
+  <si>
+    <t>9.2. Краткое содержание главы</t>
+  </si>
+  <si>
+    <t>9.3. Задачи, упражнения, тесты и ситтации</t>
+  </si>
+  <si>
+    <t>Глава 10. МАРКЕТИНГ ВЗАИМООТНОШЕНИЙ</t>
+  </si>
+  <si>
+    <t>10.1. Структура главы</t>
+  </si>
+  <si>
+    <t>10.2. Краткое содержание главы</t>
+  </si>
+  <si>
+    <t>10.3. Задачи, упражнения, тесты и ситтации</t>
+  </si>
+  <si>
+    <t>Глава 11. УПРАВЛЕНИЕ МАРКЕТИНГОМ</t>
+  </si>
+  <si>
+    <t>11.1. Структура главы</t>
+  </si>
+  <si>
+    <t>11.2. Краткое содержание главы</t>
+  </si>
+  <si>
+    <t>11.3. Задачи, упражнения, тесты и ситуации</t>
+  </si>
+  <si>
+    <t>Основы проектирования и реализации баз данных</t>
+  </si>
+  <si>
+    <t>Лабораторная работа № 1. Анализ и моделирование предметной области</t>
+  </si>
+  <si>
+    <t>Лабораторная работа № 2. Концептуальное и логическое проектирование базы данных</t>
+  </si>
+  <si>
+    <t>Лабораторная работа № 3. Разработка физической модели данных и создание БД</t>
+  </si>
+  <si>
+    <t>Лабораторная работа № 4. Проектирование запросов выборки данных</t>
+  </si>
+  <si>
+    <t>Лабораторная работа № 5. Проектирование запросов модификации данных</t>
+  </si>
+  <si>
+    <t>Лабораторная работа № 6. Программирование серверной логики базы данных</t>
+  </si>
+  <si>
+    <t>Библиографический список</t>
+  </si>
+  <si>
+    <t>Приложение 1. Примеры описания предметной области</t>
+  </si>
+  <si>
+    <t>Вариант 1. Типография</t>
+  </si>
+  <si>
+    <t>Вариант 2. Гостиничный комплекс</t>
+  </si>
+  <si>
+    <t>Вариант 3. Фирма по продаже автомобилей</t>
+  </si>
+  <si>
+    <t>Вариант 4. Склад бытовой химии</t>
+  </si>
+  <si>
+    <t>Вариант 5. Такси</t>
+  </si>
+  <si>
+    <t>Информационная безопасность</t>
+  </si>
+  <si>
+    <t>ЛЕКЦИЯ 1. ИНФОРМАЦИОННАЯ БЕЗОПАСНОСТЬ КАК ОПРЕДЕЛЯЮЩИЙ КОМПОНЕНТ НАЦИОНАЛЬНОЙ БЕЗОПАСНОСТИ РОССИИ</t>
+  </si>
+  <si>
+    <t>Вопрос 1. Место информационной безопасности в системе национальной безопасности России: понятие, структура и содержание</t>
+  </si>
+  <si>
+    <t>Вопрос 2. Основные руководящие документы, регламентирующие вопросы информационной безопасности</t>
+  </si>
+  <si>
+    <t>Вопрос 3. Современные угрозы информационной безопасности в России</t>
+  </si>
+  <si>
+    <t>ЛЕКЦИЯ 2. ОСНОВНЫЕ НАПРАВЛЕНИЯ ОБЕСПЕЧЕНИЯ БЕЗОПАСНОСТИ ИНФОРМАЦИОННЫХ РЕСУРСОВ</t>
+  </si>
+  <si>
+    <t>Вопрос 1. Информационные ресурсы и конфиденциальность информации</t>
+  </si>
+  <si>
+    <t>Вопрос 2. Угрозы конфиденциальной информации организации</t>
+  </si>
+  <si>
+    <t>Вопрос 3. Система защиты конфиденциальной информации</t>
+  </si>
+  <si>
+    <t>ЛЕКЦИЯ 3. АНАЛИТИЧЕСКАЯ РАБОТА В СФЕРЕ БЕЗОПАСНОСТИ ИНФОРМАЦИОННЫХ РЕСУРСОВ</t>
+  </si>
+  <si>
+    <t>Вопрос 1. Понятие информационно-аналитической работы</t>
+  </si>
+  <si>
+    <t>Вопрос 2. Направления аналитической работы</t>
+  </si>
+  <si>
+    <t>Вопрос 3. Этапы аналитической работы</t>
+  </si>
+  <si>
+    <t>Вопрос 4. Методы аналитической работы</t>
+  </si>
+  <si>
+    <t>ЛЕКЦИЯ 4. МЕТОДИКА ПОСТРОЕНИЯ КОРПОРАТИВНОЙ СИСТЕМЫ ОБЕСПЕЧЕНИЯ ИНФОРМАЦИОННОЙ БЕЗОПАСНОСТИ</t>
+  </si>
+  <si>
+    <t>Вопрос 1. Разновидности аналитических работ по оценке защищенности</t>
+  </si>
+  <si>
+    <t>Вопрос 2. Модель и методика корпоративной системы защиты информации</t>
+  </si>
+  <si>
+    <t>Вопрос 3. Формирование организационной политики безопасности</t>
+  </si>
+  <si>
+    <t>ЛЕКЦИЯ 5. КОНЦЕПТУАЛЬНЫЕ ОСНОВЫ ЗАЩИТЫ ИНФОРМАЦИИ В АВТОМАТИЗИРОВАННЫХ СИСТЕМАХ</t>
+  </si>
+  <si>
+    <t>Вопрос 1. Анализ и типизация организационных и программно-аппаратных структур автоматизированных систем предприятия</t>
+  </si>
+  <si>
+    <t>Вопрос 2. Анализ возможных угроз и их специфика в различных типах АС</t>
+  </si>
+  <si>
+    <t>Вопрос 3. Систематизация видов защиты информации</t>
+  </si>
+  <si>
+    <t>ЛЕКЦИЯ 6. ОСНОВЫ ОБЕСПЕЧЕНИЯ ИНФОРМАЦИОННОЙ БЕЗОПАСНОСТИ В БАНКОВСКОЙ СФЕРЕ</t>
+  </si>
+  <si>
+    <t>Вопрос 1. Особенности информационной безопасности банков</t>
+  </si>
+  <si>
+    <t>Вопрос 2. Анализ состояния банковских автоматизированных систем с точки зрения безопасности</t>
+  </si>
+  <si>
+    <t>Вопрос 3. Принципы защиты банковских автоматизированных систем</t>
+  </si>
+  <si>
+    <t>Вопрос 4. Безопасность компьютерных сетей в банке</t>
+  </si>
+  <si>
+    <t>ЛЕКЦИЯ 7. ТЕОРЕТИЧЕСКИЕ ОСНОВЫ ИНФОРМАЦИОННОЙ БЕЗОПАСНОСТИ В ИНФОРМАЦИОННО-ТЕЛЕКОММУНИКАЦИОННЫХ СЕТЯХ</t>
+  </si>
+  <si>
+    <t>Вопрос 1. Обобщенная модель процессов информационной безопасности</t>
+  </si>
+  <si>
+    <t>Вопрос 2. Унифицированная концепция защиты информации</t>
+  </si>
+  <si>
+    <t>ЛЕКЦИЯ 8. ТРЕБОВАНИЯ РУКОВОДЯЩИХ ДОКУМЕНТОВ ПО ОБЕСПЕЧЕНИЮ ИНФОРМАЦИОННОЙ БЕЗОПАСНОСТИ И НСД</t>
+  </si>
+  <si>
+    <t>Вопрос 1. Основные положения по обеспечению ИБ</t>
+  </si>
+  <si>
+    <t>Вопрос 2. Показатели защищенности средств вычислительной техники (СВТ)</t>
+  </si>
+  <si>
+    <t>Вопрос 3. Классы защищенности автоматизированных систем</t>
+  </si>
+  <si>
+    <t>ЛЕКЦИЯ 9. ЗАЩИТА ИНФОРМАЦИИ ОТ НЕСАНКЦИОНИРОВАННОГО ДОСТУПА</t>
+  </si>
+  <si>
+    <t>Вопрос 1. Основные понятия защиты от НСД</t>
+  </si>
+  <si>
+    <t>Вопрос 2. Формальные модели защиты</t>
+  </si>
+  <si>
+    <t>Вопрос 3. Системы разграничения доступа</t>
+  </si>
+  <si>
+    <t>ЛЕКЦИЯ 10. МАТЕМАТИЧЕСКИЕ МОДЕЛИ ОБЕСПЕЧЕНИЯ БЕЗОПАСНОСТИ ИНФОРМАЦИИ</t>
+  </si>
+  <si>
+    <t>Вопрос 1. Назначение математических моделей обеспечения безопасности информации в АСУ</t>
+  </si>
+  <si>
+    <t>Вопрос 2. Сравнительный анализ и основные определения математических моделей обеспечения безопасности информации</t>
+  </si>
+  <si>
+    <t>ЛЕКЦИЯ 11. ОСНОВНЫЕ НАПРАВЛЕНИЯ ОБЕСПЕЧЕНИЯ ИНФОРМАЦИОННОЙ БЕЗОПАСНОСТИ КОМПЬЮТЕРНЫХ СЕТЕЙ УЧЕБНЫХ ЗАВЕДЕНИЙ</t>
+  </si>
+  <si>
+    <t>Вопрос 1. Состояние вопросов обеспечения информационной безопасности</t>
+  </si>
+  <si>
+    <t>Вопрос 2. Угрозы и уязвимости КСУЗ</t>
+  </si>
+  <si>
+    <t>Вопрос 3. Этапы построения БКСУЗ</t>
+  </si>
+  <si>
+    <t>Вопрос 4. Направление исследований</t>
+  </si>
+  <si>
+    <t>ЛЕКЦИЯ 12. ЗАЩИТА ИНФОРМАЦИИ ОТ КОМПЬЮТЕРНЫХ ВИРУСОВ И ДРУГИХ ОПАСНЫХ ВОЗДЕЙСТВИЙ ПО КАНАЛАМ РАСПРОСТРАНЕНИЯ ПРОГРАММНЫХ СРЕДСТВ</t>
+  </si>
+  <si>
+    <t>Вопрос 1. Юридические и организационные меры защиты</t>
+  </si>
+  <si>
+    <t>Вопрос 2. Программно-аппаратные методы и средства защиты</t>
+  </si>
+  <si>
+    <t>Вопрос 3. Защита программ и ценных баз данных от несанкционированного копирования и распространения</t>
+  </si>
+  <si>
+    <t>ГЛОССАРГЛОССАРИЙ. Основные термины и определения в области информационной безопасности офисной деятельности</t>
+  </si>
+  <si>
+    <t>Элементы математической логики</t>
+  </si>
+  <si>
+    <t>Введение</t>
+  </si>
+  <si>
+    <t>1 Практическая работа № 1. Операции над высказываниями</t>
+  </si>
+  <si>
+    <t>1.1 Ход работы</t>
+  </si>
+  <si>
+    <t>1.2 Содержание отчета</t>
+  </si>
+  <si>
+    <t>1.3 Теоретическая справка к практической работе № 1</t>
+  </si>
+  <si>
+    <t>1.3.1 Понятие высказывания</t>
+  </si>
+  <si>
+    <t>1.3.2 Операции над высказываниями</t>
+  </si>
+  <si>
+    <t>1.4 Варианты заданий</t>
+  </si>
+  <si>
+    <t>1.5 Вопросы к защите практической работы № 1</t>
+  </si>
+  <si>
+    <t>2 Практическая работа №2. Построение таблиц истинности для формул логики высказываний</t>
+  </si>
+  <si>
+    <t>2.1 Ход работы</t>
+  </si>
+  <si>
+    <t>2.2 Содержание отчета</t>
+  </si>
+  <si>
+    <t>2.3 Теоретическая справка к практической работе № 2</t>
+  </si>
+  <si>
+    <t>2.3.1 Законы логики высказываний</t>
+  </si>
+  <si>
+    <t>2.3.2 Таблица истинности формул логики высказываний</t>
+  </si>
+  <si>
+    <t>2.4 Варианты заданий</t>
+  </si>
+  <si>
+    <t>2.5 Вопросы к защите практической работы № 2</t>
+  </si>
+  <si>
+    <t>3 Практическая работа № 3. Равносильные преобразования формул логики высказываний</t>
+  </si>
+  <si>
+    <t>3.1 Ход работы</t>
+  </si>
+  <si>
+    <t>3.2 Содержание отчета</t>
+  </si>
+  <si>
+    <t>3.3 Теоретическая справка к практической работе № 3</t>
+  </si>
+  <si>
+    <t>3.3.1Равносильные преобразования</t>
+  </si>
+  <si>
+    <t>3.4 Варианты заданий</t>
+  </si>
+  <si>
+    <t>3.5 Вопросы к защите практической работы № 3</t>
+  </si>
+  <si>
+    <t>4 Практическая работа № 4. Решение логических задач</t>
+  </si>
+  <si>
+    <t>4.1 Ход работы</t>
+  </si>
+  <si>
+    <t>4.2 Содержание отчета</t>
+  </si>
+  <si>
+    <t>4.3 Теоретическая справка к практической работе № 4</t>
+  </si>
+  <si>
+    <t>4.3.1 Логические задачи</t>
+  </si>
+  <si>
+    <t>4.4 Варианты заданий</t>
+  </si>
+  <si>
+    <t>4.5 Вопросы к защите практической работы № 4</t>
+  </si>
+  <si>
+    <t>5 Практическая работа № 5. Дизъюнктивная и конъюнктивная нормальные формы</t>
+  </si>
+  <si>
+    <t>5.1 Ход работы</t>
+  </si>
+  <si>
+    <t>5.2 Содержание отчета</t>
+  </si>
+  <si>
+    <t>5.3 Теоретическая справка к практической работе № 5</t>
+  </si>
+  <si>
+    <t>5.3.1. Понятие ДНФ и КНФ</t>
+  </si>
+  <si>
+    <t>5.4 Варианты заданий</t>
+  </si>
+  <si>
+    <t>5.5 Вопросы к защите практической работы № 5</t>
+  </si>
+  <si>
+    <t>6 Практическая работа № 6. Совершенная дизъюнктивная нормальная форма (СДНФ) и совершенная конъюнктивная нормальная форма (СКНФ)</t>
+  </si>
+  <si>
+    <t>6.1 Ход работы</t>
+  </si>
+  <si>
+    <t>6.2 Содержание отчета</t>
+  </si>
+  <si>
+    <t>6.3 Теоретическая справка к практической работе № 6</t>
+  </si>
+  <si>
+    <t>6.3.1. Понятие СДНФ и СКНФ</t>
+  </si>
+  <si>
+    <t>6.3.2 Алгоритмы построения СДНФ и СКНФ по таблице истинности</t>
+  </si>
+  <si>
+    <t>6.4 Варианты заданий</t>
+  </si>
+  <si>
+    <t>6.5 Вопросы к защите практической работы № 6</t>
+  </si>
+  <si>
+    <t>7 Практическая работа № 7.Применение булевых функций к релейно - контактным схемам</t>
+  </si>
+  <si>
+    <t>7.1 Ход работы</t>
+  </si>
+  <si>
+    <t>7.2 Содержание отчета</t>
+  </si>
+  <si>
+    <t>7.3 Теоретическая справка к практической работе № 7</t>
+  </si>
+  <si>
+    <t>7.3.1 Понятие булевых функций</t>
+  </si>
+  <si>
+    <t>7.3.2 Релейно-контактные схемы</t>
+  </si>
+  <si>
+    <t>7.4 Варианты заданий</t>
+  </si>
+  <si>
+    <t>7.5 Вопросы к защите практической работы № 7</t>
+  </si>
+  <si>
+    <t>8 Практическая работа № 8. Операции над множествами</t>
+  </si>
+  <si>
+    <t>8.1 Ход работы</t>
+  </si>
+  <si>
+    <t>8.2 Содержание отчета</t>
+  </si>
+  <si>
+    <t>8.3 Теоретическая справка к практической работе № 8</t>
+  </si>
+  <si>
+    <t>8.3.1 Понятие множества</t>
+  </si>
+  <si>
+    <t>8.3.2 Операции над множествами</t>
+  </si>
+  <si>
+    <t>8.4 Варианты заданий</t>
+  </si>
+  <si>
+    <t>8.5 Вопросы к защите практической работы № 8</t>
+  </si>
+  <si>
+    <t>9 Практическая работа № 9. Операции над предикатами</t>
+  </si>
+  <si>
+    <t>9.1 Ход работы</t>
+  </si>
+  <si>
+    <t>9.2 Содержание отчета</t>
+  </si>
+  <si>
+    <t>9.3 Теоретическая справка к практической работе № 9</t>
+  </si>
+  <si>
+    <t>9.3.1 Понятие предиката</t>
+  </si>
+  <si>
+    <t>9.3.2 Операции над предикатами</t>
+  </si>
+  <si>
+    <t>9.4 Варианты заданий</t>
+  </si>
+  <si>
+    <t>9.5 Вопросы к защите практической работы № 9</t>
+  </si>
+  <si>
+    <t>10 Практическая работа № 10. Высказывания с кванторами</t>
+  </si>
+  <si>
+    <t>10.1 Ход работы</t>
+  </si>
+  <si>
+    <t>10.2 Содержание отчета</t>
+  </si>
+  <si>
+    <t>10.3 Теоретическая справка к практической работе № 10</t>
+  </si>
+  <si>
+    <t>10.3.1 Понятие квантора</t>
+  </si>
+  <si>
+    <t>10.3.2 Построение отрицание высказывания с кванторами</t>
+  </si>
+  <si>
+    <t>10.4 Варианты заданий</t>
+  </si>
+  <si>
+    <t>10.5 Вопросы к защите практической работы № 10</t>
+  </si>
+  <si>
+    <t>Введение в нейронные сети</t>
+  </si>
+  <si>
+    <t>1. Модель нейронной сети</t>
+  </si>
+  <si>
+    <t>2. Построение обученных логических нейронных сетей</t>
+  </si>
+  <si>
+    <t>3. Система принятия решений на основе математической логики событий</t>
+  </si>
+  <si>
+    <t>4. Обучение логической нейронной сети</t>
+  </si>
+  <si>
+    <t>5. Развитие логической нейронной сети для распознавания объектов по заданному набору признаков</t>
+  </si>
+  <si>
+    <t>6. Нейросетевые самообучающиеся и адаптивные системы управления</t>
+  </si>
+  <si>
+    <t>7. Логические нейронные сети с обратными связями</t>
+  </si>
+  <si>
+    <t>8. Нейросетевые технологии в экономике и бизнесе</t>
+  </si>
+  <si>
+    <t>9. Нейросетевые модели пошаговой оптимизации, маршрутизации и тактических игр</t>
+  </si>
+  <si>
+    <t>10. Логическое программирование нейронной сети на базе языка ПРОЛОГ</t>
+  </si>
+  <si>
+    <t>11. Медицинские информационно-справочные системы на логических нейронных сетях</t>
+  </si>
+  <si>
+    <t>12. Основы трехмерного "живого" моделирования</t>
+  </si>
+  <si>
+    <t>13. Методика по строения системы принятия решений на основе логической нейронной сети</t>
+  </si>
+  <si>
+    <t>14. Перспективные нейросетевые технологии</t>
+  </si>
+  <si>
+    <t>Список литературы</t>
+  </si>
+  <si>
+    <t>Практикум по дискретной математике</t>
+  </si>
+  <si>
+    <t>ПРЕДИСЛОВИЕ</t>
+  </si>
+  <si>
+    <t>ВВЕДЕНИЕ</t>
+  </si>
+  <si>
+    <t>Глава I. Множества и операции над ними</t>
+  </si>
+  <si>
+    <t>Глава II. Отношения и функции</t>
+  </si>
+  <si>
+    <t>Глава III. Формулы алгебры логики</t>
+  </si>
+  <si>
+    <t>Глава IV. Функции алгебры логики</t>
+  </si>
+  <si>
+    <t>Глава V. Предикаты</t>
+  </si>
+  <si>
+    <t>Глава VI. Машины Тьюринга</t>
+  </si>
+  <si>
+    <t>Глава VII. Графы</t>
+  </si>
+  <si>
+    <t>Глава VIII. Некоторые задачи на графах</t>
+  </si>
+  <si>
+    <t>Глава IX. Конечные детерминированные автоматы</t>
+  </si>
+  <si>
+    <t>Глава X. Элементы комбинаторики</t>
+  </si>
+  <si>
+    <t>ВАРИАНТЫ ТЕСТОВЫХ ЗАДАНИЙ</t>
+  </si>
+  <si>
+    <t>КОНТРОЛЬНЫЕ ЗАДАНИЯ</t>
+  </si>
+  <si>
+    <t>ОТВЕТЫ И УКАЗАНИЯ</t>
+  </si>
+  <si>
+    <t>СПИСОК ЛИТЕРАТУРЫ</t>
+  </si>
+  <si>
+    <t>Налоги и налогообложение</t>
+  </si>
+  <si>
+    <t>1. Понятие налога. Элементы налогообложения. Система налогов и сборов в Российской Федерации</t>
+  </si>
+  <si>
+    <t>1.1. Общие условия установления налогов и сборов. Элементы налогообложения</t>
+  </si>
+  <si>
+    <t>1.2. Порядок исчисления налога</t>
+  </si>
+  <si>
+    <t>1.3. Виды налогов и сборов в Российской Федерации</t>
+  </si>
+  <si>
+    <t>1.4. Специальные налоговые режимы</t>
+  </si>
+  <si>
+    <t>1.5. Вопросы для подготовки к тестированию</t>
+  </si>
+  <si>
+    <t>2. Налог на добавленную стоимость</t>
+  </si>
+  <si>
+    <t>2.1. Налогоплательщики</t>
+  </si>
+  <si>
+    <t>2.2. Объект налогообложения</t>
+  </si>
+  <si>
+    <t>2.3. Место реализации товаров (работ, услуг)</t>
+  </si>
+  <si>
+    <t>2.4. Налоговая база</t>
+  </si>
+  <si>
+    <t>2.5. Налоговые ставки</t>
+  </si>
+  <si>
+    <t>2.5.1. Базовые ставки НДС</t>
+  </si>
+  <si>
+    <t>2.5.2. Расчетные ставки налога</t>
+  </si>
+  <si>
+    <t>2.6. Порядок исчисления налога</t>
+  </si>
+  <si>
+    <t>2.7. Налоговые вычеты</t>
+  </si>
+  <si>
+    <t>2.8. Налоговый и отчетный периоды, порядок уплаты НДС</t>
+  </si>
+  <si>
+    <t>2.9. Освобождение от уплаты НДС</t>
+  </si>
+  <si>
+    <t>2.10. Вопросы для подготовки к тестированию</t>
+  </si>
+  <si>
+    <t>2.11. Задачи для самостоятельного решения</t>
+  </si>
+  <si>
+    <t>3. Налог на доходы физических лиц. Обязательные страховые взносы во внебюджетные фонды</t>
+  </si>
+  <si>
+    <t>3.1. Налог на доходы физических лиц</t>
+  </si>
+  <si>
+    <t>3.1.1. Налогоплательщики и объект налогообложения</t>
+  </si>
+  <si>
+    <t>3.1.2. Доходы, не подлежащие налогообложению</t>
+  </si>
+  <si>
+    <t>3.1.3. Формы получения доходов</t>
+  </si>
+  <si>
+    <t>3.1.4. Налоговые ставки НДФЛ</t>
+  </si>
+  <si>
+    <t>3.1.5. Доходы, облагаемые по специальным ставкам НДФЛ</t>
+  </si>
+  <si>
+    <t>3.1.6. Налогооблагаемая база НДФЛ</t>
+  </si>
+  <si>
+    <t>3.1.7. Налоговые вычеты</t>
+  </si>
+  <si>
+    <t>3.1.7.1. Стандартные налоговые вычеты</t>
+  </si>
+  <si>
+    <t>3.1.7.2. Социальные налоговые вычеты</t>
+  </si>
+  <si>
+    <t>3.1.7.3. Имущественные налоговые вычеты</t>
+  </si>
+  <si>
+    <t>3.1.7.4. Профессиональные налоговые вычеты</t>
+  </si>
+  <si>
+    <t>3.1.8. Налоговый период. Правила удержания и уплаты НДФЛ</t>
+  </si>
+  <si>
+    <t>3.2. Обязательные взносы во внебюджетные социальные фонды</t>
+  </si>
+  <si>
+    <t>3.2.1. Плательщики обязательных страховых взносов во внебюджетные фонды</t>
+  </si>
+  <si>
+    <t>3.2.2. Объект налогообложения и порядок расчета базы по страховым взносам для работодателей</t>
+  </si>
+  <si>
+    <t>3.2.3. Порядок расчета, сроки уплаты и предоставление отчетности по обязательным страховым взносам, уплачиваемым работодателями</t>
+  </si>
+  <si>
+    <t>3.2.4. Порядок расчета, сроки уплаты и предоставление отчетности по обязательным страховым взносам, уплачиваемых индивидуальными предпринимателями</t>
+  </si>
+  <si>
+    <t>3.2.5. Обязательное страхование от несчастных случаев на производстве и профзаболеваний</t>
+  </si>
+  <si>
+    <t>3.3. Вопросы для подготовки к тестированию</t>
+  </si>
+  <si>
+    <t>3.4. Задачи для самостоятельного решения</t>
+  </si>
+  <si>
+    <t>4. Налог на прибыль</t>
+  </si>
+  <si>
+    <t>4.1. Налогоплательщики</t>
+  </si>
+  <si>
+    <t>4.2. Соглашения об избежании двойного налогообложения</t>
+  </si>
+  <si>
+    <t>4.3. Объект налогообложения</t>
+  </si>
+  <si>
+    <t>4.4. Методы учета доходов и расходов</t>
+  </si>
+  <si>
+    <t>4.5. Порядок признания доходов для целей налогообложения. Классификация доходов</t>
+  </si>
+  <si>
+    <t>4.6. Порядок признания расходов для целей налогообложения. Классификация расходов</t>
+  </si>
+  <si>
+    <t>4.6.1. Прямые и косвенные расходы</t>
+  </si>
+  <si>
+    <t>4.6.2. Расходы, связанные с производством и реализацией</t>
+  </si>
+  <si>
+    <t>4.6.3. Порядок признания внереализационных и прочих расходов</t>
+  </si>
+  <si>
+    <t>4.6.4. Нормирование расходов</t>
+  </si>
+  <si>
+    <t>4.7. Расчет амортизационных отчислений в целях налогообложения</t>
+  </si>
+  <si>
+    <t>4.8. Налоговая база</t>
+  </si>
+  <si>
+    <t>4.9. Налоговые ставки</t>
+  </si>
+  <si>
+    <t>4.10. Расчет и уплата налога на прибыль</t>
+  </si>
+  <si>
+    <t>4.11. Налоговый период. Отчетный период</t>
+  </si>
+  <si>
+    <t>4.12. Порядок исчисления налога и авансовых платежей</t>
+  </si>
+  <si>
+    <t>4.13. Вопросы для подготовки к тестированию</t>
+  </si>
+  <si>
+    <t>4.14. Задачи для самостоятельного решения</t>
+  </si>
+  <si>
+    <t>5. Налоги на имущество и землю</t>
+  </si>
+  <si>
+    <t>5.1. Налог на имущество юридических лиц</t>
+  </si>
+  <si>
+    <t>5.1.1. Налогоплательщики налога на имущество юридических лиц</t>
+  </si>
+  <si>
+    <t>5.1.2. Налог на имущество для организаций, осуществляющих свою деятельность в РФ</t>
+  </si>
+  <si>
+    <t>5.1.2.1. Объект налогообложения, налоговые ставки, налоговый период</t>
+  </si>
+  <si>
+    <t>5.1.2.2. Налогооблагаемая база</t>
+  </si>
+  <si>
+    <t>5.1.2.3. Порядок исчисления и уплаты налога</t>
+  </si>
+  <si>
+    <t>5.1.3. Налог на имущество организаций, не осуществляющих свою деятельность в РФ</t>
+  </si>
+  <si>
+    <t>5.1.4. Отчетность</t>
+  </si>
+  <si>
+    <t>5.2. Налог на имущество физических лиц</t>
+  </si>
+  <si>
+    <t>5.2.1. Налогоплательщики</t>
+  </si>
+  <si>
+    <t>5.2.2. Объект налогообложения и ставки налога на имущество физических лиц</t>
+  </si>
+  <si>
+    <t>5.2.3. Порядок расчета и уплаты налога</t>
+  </si>
+  <si>
+    <t>5.3. Земельный налог</t>
+  </si>
+  <si>
+    <t>5.3.1. Налогоплательщики и объект налогообложения</t>
+  </si>
+  <si>
+    <t>5.3.2. Налоговая база и порядок ее расчета</t>
+  </si>
+  <si>
+    <t>5.3.3. Налоговый и отчетные периоды, налоговые ставки</t>
+  </si>
+  <si>
+    <t>5.3.4. Порядок расчета земельного налога</t>
+  </si>
+  <si>
+    <t>5.3.5. Сроки и порядок уплаты земельного налога юридическими лицами и ИП</t>
+  </si>
+  <si>
+    <t>5.3.6. Сроки и порядок уплаты земельного налога физическими лицами</t>
+  </si>
+  <si>
+    <t>5.4. Вопросы для подготовки к тестированию</t>
+  </si>
+  <si>
+    <t>5.5. Задачи для самостоятельного решения</t>
+  </si>
+  <si>
+    <t>6. Транспортный налог</t>
+  </si>
+  <si>
+    <t>6.1. Налогоплательщики и объект налогообложения</t>
+  </si>
+  <si>
+    <t>6.2. Налоговая база</t>
+  </si>
+  <si>
+    <t>6.3. Ставки налога</t>
+  </si>
+  <si>
+    <t>6.4. Налоговый и отчетный периоды. Порядок исчисления налога</t>
+  </si>
+  <si>
+    <t>6.4.1. Исчисление транспортного налога юридическими лицами</t>
+  </si>
+  <si>
+    <t>6.4.2. Исчисление налога для физических лиц</t>
+  </si>
+  <si>
+    <t>6.5. Вопросы для подготовки к тестированию</t>
+  </si>
+  <si>
+    <t>6.6. Задачи для самостоятельного решения</t>
+  </si>
+  <si>
+    <t>7. Специальные налоговые режимы</t>
+  </si>
+  <si>
+    <t>7.1. Упрощенная система налогообложения</t>
+  </si>
+  <si>
+    <t>7.1.1. Порядок применения УСНО</t>
+  </si>
+  <si>
+    <t>7.1.2. Объекты налогообложения, налоговая база, налоговые ставки</t>
+  </si>
+  <si>
+    <t>7.1.3. Определение доходов и расходов при применении упрощенной системы налогообложения</t>
+  </si>
+  <si>
+    <t>7.1.4. Определение расходов на приобретение основных средств</t>
+  </si>
+  <si>
+    <t>7.1.5. Расчет единого налога и сроки его уплаты</t>
+  </si>
+  <si>
+    <t>7.1.6. Сроки уплаты единого налога</t>
+  </si>
+  <si>
+    <t>7.2. УСНО на основе патента</t>
+  </si>
+  <si>
+    <t>7.2.1. Налогоплательщики и порядок применения</t>
+  </si>
+  <si>
+    <t>7.2.2. Освобождение от уплаты других налогов</t>
+  </si>
+  <si>
+    <t>7.2.3. Порядок и сроки уплаты налога</t>
+  </si>
+  <si>
+    <t>7.3. Вопросы для подготовки к тестированию</t>
+  </si>
+  <si>
+    <t>7.4. Задачи для самостоятельного решения</t>
+  </si>
+  <si>
+    <t>Приложения</t>
+  </si>
+  <si>
+    <t>Экспертные системы</t>
+  </si>
+  <si>
+    <t>Лабораторная работа № 1 – Моделирование экспертной системы на основе нечеткой логики</t>
+  </si>
+  <si>
+    <t>1 Цель работы</t>
+  </si>
+  <si>
+    <t>2 Теоретическая часть</t>
+  </si>
+  <si>
+    <t>2.1 Процесс обработки нечетких правил вывода в экспертной системе</t>
+  </si>
+  <si>
+    <t>2.2 Обработка нечетких правил вывода в экспертной системе, управляющей вентилятором</t>
+  </si>
+  <si>
+    <t>3 Процесс выполнения работы в системе CubiCalc</t>
+  </si>
+  <si>
+    <t>4 Задачи для решения</t>
+  </si>
+  <si>
+    <t>4.1 Задача 1 – Модель управления вентилятором</t>
+  </si>
+  <si>
+    <t>4.2 Задача 2 – Модель управления грузовиком TRACKXY</t>
+  </si>
+  <si>
+    <t>4.3 Задача 3 – Модель управления вентилем подачи пара</t>
+  </si>
+  <si>
+    <t>4.4 Задача 4 – Модель управления углом поворота вентиля</t>
+  </si>
+  <si>
+    <t>Лабораторная работа № 2 – Моделирование экспертных систем на основе нейронных сетей</t>
+  </si>
+  <si>
+    <t>2 Использование нейропакетов BrainMaker и NeuroPro</t>
+  </si>
+  <si>
+    <t>2.1 Социальное прогнозирование итогов президентских выборов с использованием нейропакета NeuroPro 0.25</t>
+  </si>
+  <si>
+    <t>2.2 Прогнозирование на финансовых рынках с использованием нейропакета BrainMaker</t>
+  </si>
+  <si>
+    <t>﻿Введение</t>
+  </si>
+  <si>
+    <t>1 Пакет облачных сервисов «Google Apps», электронное портфолио</t>
+  </si>
+  <si>
+    <t>Список использованных источников</t>
+  </si>
+  <si>
+    <t>Экономика отрасли и предприятия (практикум)</t>
+  </si>
+  <si>
+    <t>ГЛАВА 1. ВВЕДЕНИЕ В ЭКОНОМИКУ ОТРАСЛИ</t>
+  </si>
+  <si>
+    <t>1.1. Транспорт - общее понятие, значение</t>
+  </si>
+  <si>
+    <t>1.2. Транспортный комплекс</t>
+  </si>
+  <si>
+    <t>ГЛАВА 2. ПРЕДПРИЯТИЯ В УСЛОВИЯХ РЫНОЧНОЙ ЭКОНОМИКИ</t>
+  </si>
+  <si>
+    <t>2.1. Предприятия как хозяйствующий субъект</t>
+  </si>
+  <si>
+    <t>2.2. Организационно-правовые формы предприятий</t>
+  </si>
+  <si>
+    <t>2.3. Организационно-правовые формы на предприятиях речного транспорта</t>
+  </si>
+  <si>
+    <t>ГЛАВА 3. РЕСУРСЫ ТРАНСПОРТНОГО ПРОИЗВОДСТВА, ПОКАЗАТЕЛИ ИХ ИСПОЛЬЗОВАНИЯ. АМОРТИЗАЦИЯ</t>
+  </si>
+  <si>
+    <t>3.1. Основные и оборотные фонды предприятия</t>
+  </si>
+  <si>
+    <t>3.2. Виды оценки стоимости основных фондов и виды их износа, амортизация основных фондов</t>
+  </si>
+  <si>
+    <t>3.3. Показатели использования основных фондов и оборотных средств на предприятиях транспорта и пути их улучшения</t>
+  </si>
+  <si>
+    <t>ГЛАВА 4. ТРУДОВЫЕ РЕСУРСЫ, ПРОИЗВОДИТЕЛЬНОСТЬ ТРУДА</t>
+  </si>
+  <si>
+    <t>4.1. Характеристика и структура трудовых ресурсов предприятия</t>
+  </si>
+  <si>
+    <t>4.2. Производительность труда и пути её повышения</t>
+  </si>
+  <si>
+    <t>ГЛАВА 5. ОРГАНИЗАЦИЯ И СТРУКТУРА ПРОИЗВОДСТВА ПРЕДПРИЯТИЯ</t>
+  </si>
+  <si>
+    <t>5.1. Общее понятие структуры производства</t>
+  </si>
+  <si>
+    <t>5.2. Структура и организация транспортного процесса пароходства</t>
+  </si>
+  <si>
+    <t>5.3. Структура и организация технологического процесса порта</t>
+  </si>
+  <si>
+    <t>ГЛАВА 6. ЭКОНОМИЧЕСКАЯ СРЕДА ФУНКЦИОНИРОВАНИЯ ПРЕДПРИЯТИЯ</t>
+  </si>
+  <si>
+    <t>6.1. Рынок -базовое понятие экономики отрасли</t>
+  </si>
+  <si>
+    <t>6.2. Структура рынка и типы строения рынка</t>
+  </si>
+  <si>
+    <t>6.3. Конкуренция на транспорте, её виды</t>
+  </si>
+  <si>
+    <t>6.4. Развития рынка транспортных услуг и совершенствование антимонопольного регулирования</t>
+  </si>
+  <si>
+    <t>ГЛАВА 7. СУЩНОСТЬ ОПЛАТЫ ТРУДА, ПРИНЦИПЫ И МЕТОДЫ, ЕЁ ИСЧИСЛЕНИЯ</t>
+  </si>
+  <si>
+    <t>7.1. Сущность оплаты труда и заработной платы работников</t>
+  </si>
+  <si>
+    <t>7.2. Современные системы оплаты труда</t>
+  </si>
+  <si>
+    <t>7.3. Формы заработной платы</t>
+  </si>
+  <si>
+    <t>7.4. Особенности оплаты труда на речном транспорте</t>
+  </si>
+  <si>
+    <t>ГЛАВА 8. ЭКОНОМИЧЕСКИЕ ПОКАЗАТЕЛИ ДЕЯТЕЛЬНОСТИ ПРЕДПРИЯТИЙ</t>
+  </si>
+  <si>
+    <t>8.1. Характеристика и классификация транспортных издержек</t>
+  </si>
+  <si>
+    <t>8.2. Себестоимость транспортной продукции</t>
+  </si>
+  <si>
+    <t>8.3. Прибыль и рентабельность предприятия</t>
+  </si>
+  <si>
+    <t>8.4. Безубыточность работы предприятия, точка безубыточности</t>
+  </si>
+  <si>
+    <t>ГЛАВА 9. ЦЕНООБРАЗОВАНИЕ НА ТРАНСПОРТЕ. ТРАНСПОРТНЫЕ ТАРИФЫ ИХ РЕГУЛИРОВАНИЕ</t>
+  </si>
+  <si>
+    <t>9.1. Сущность цены как экономической категории</t>
+  </si>
+  <si>
+    <t>9.2. Виды и функции цен</t>
+  </si>
+  <si>
+    <t>9.3. Факторы, влияющие на уровень цен</t>
+  </si>
+  <si>
+    <t>9.4. Транспортные тарифы и их регулирование</t>
+  </si>
+  <si>
+    <t>ГЛАВА 10. ФИНАНСОВЫЕ РИСКИ В ПРОИЗВОДСТВЕННЙ ДЕЯТЕЛЬНОСТИ ПРЕДПРИЯТИЯ</t>
+  </si>
+  <si>
+    <t>10.1. Общее понятие - риска. Финансовые риски</t>
+  </si>
+  <si>
+    <t>10.2. Анализ финансовых рисков</t>
+  </si>
+  <si>
+    <t>10.3. Процесс управление рисками</t>
+  </si>
+  <si>
+    <t>ГЛАВА 11. РЕКОМЕНДАЦИИ РАБОТЫ С ТЕСТАМИ</t>
+  </si>
+  <si>
+    <t>11.1. Понятие о тестах и работа с тестами</t>
+  </si>
+  <si>
+    <t>Приложение</t>
+  </si>
+  <si>
+    <t>1. Основные показатели транспорта (за период 1990-2012 гг.)</t>
+  </si>
+  <si>
+    <t>2. Показатели для решения задач Главы 1</t>
+  </si>
+  <si>
+    <t>3. Классификация юридических лиц</t>
+  </si>
+  <si>
+    <t>4. Показатели для решения задач Главы 2</t>
+  </si>
+  <si>
+    <t>5. Структура управления пароходства, СК</t>
+  </si>
+  <si>
+    <t>6. Структура управления порта</t>
+  </si>
+  <si>
+    <t>7. Структура управления промпредприятия</t>
+  </si>
+  <si>
+    <t>8. Структура управления предприятий водных путей</t>
+  </si>
+  <si>
+    <t>9. Данные к расчету выбора оптимального типа судна</t>
+  </si>
+  <si>
+    <t>10. Данные к расчету выбора оптимальной схемы механизации</t>
+  </si>
+  <si>
+    <t>11. Основные вопросы рыночной экономики</t>
+  </si>
+  <si>
+    <t>12. Показатели для решения задач Главы 6</t>
+  </si>
+  <si>
+    <t>13. Показатели для решения задач Главы 10</t>
+  </si>
+  <si>
+    <t>14. Тестовые задачи и ключ к их решению</t>
+  </si>
+  <si>
+    <t>Использованная литература</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,6 +2506,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFEF6A01"/>
       <name val="Roboto"/>
       <charset val="204"/>
     </font>
@@ -1336,7 +2575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1357,6 +2596,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1673,15 +2915,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B6F07E-7664-4B92-94A6-07955332FB49}">
-  <dimension ref="A1:HD215"/>
+  <dimension ref="A1:HK233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:CW9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:212" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:219" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>83</v>
       </c>
@@ -1962,7 +3204,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:212" ht="253.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:219" ht="253.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
@@ -2009,7 +3251,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:212" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:219" ht="166.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>85</v>
       </c>
@@ -2194,7 +3436,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:212" ht="346.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:219" ht="346.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>193</v>
       </c>
@@ -2832,7 +4074,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:212" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:219" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>194</v>
       </c>
@@ -2981,7 +4223,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:212" ht="406.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:219" ht="406.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>221</v>
       </c>
@@ -3439,7 +4681,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:212" ht="256.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:219" ht="256.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>298</v>
       </c>
@@ -3468,7 +4710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:212" ht="331.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:219" ht="331.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>303</v>
       </c>
@@ -3791,7 +5033,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:212" ht="301.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:219" ht="301.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>357</v>
       </c>
@@ -4096,117 +5338,2703 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:212" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:212" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:212" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:212" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:212" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:212" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:212" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:219" ht="226.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I10" s="2">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="K10" s="2">
+        <v>13</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M10" s="2">
+        <v>39</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="O10" s="2">
+        <v>39</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>40</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="S10" s="2">
+        <v>52</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="U10" s="2">
+        <v>82</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="W10" s="2">
+        <v>82</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>96</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>119</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>119</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>130</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>156</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>167</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>194</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>194</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>194</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>209</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>236</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>236</v>
+      </c>
+      <c r="BD10" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>236</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>251</v>
+      </c>
+      <c r="BH10" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>271</v>
+      </c>
+      <c r="BJ10" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="BK10" s="2">
+        <v>271</v>
+      </c>
+      <c r="BL10" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>272</v>
+      </c>
+      <c r="BN10" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>284</v>
+      </c>
+      <c r="BP10" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>308</v>
+      </c>
+      <c r="BR10" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>308</v>
+      </c>
+      <c r="BT10" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>308</v>
+      </c>
+      <c r="BV10" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>316</v>
+      </c>
+      <c r="BX10" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="BY10" s="2">
+        <v>338</v>
+      </c>
+      <c r="BZ10" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="CA10" s="2">
+        <v>338</v>
+      </c>
+      <c r="CB10" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="CC10" s="2">
+        <v>339</v>
+      </c>
+      <c r="CD10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="CE10" s="2">
+        <v>352</v>
+      </c>
+      <c r="CF10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="CG10" s="2">
+        <v>374</v>
+      </c>
+      <c r="CH10" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="CI10" s="2">
+        <v>374</v>
+      </c>
+      <c r="CJ10" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="CK10" s="2">
+        <v>374</v>
+      </c>
+      <c r="CL10" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="CM10" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:219" ht="241.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I11" s="2">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="K11" s="2">
+        <v>15</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="M11" s="2">
+        <v>17</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="O11" s="2">
+        <v>19</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>20</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="S11" s="2">
+        <v>20</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="U11" s="2">
+        <v>21</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="W11" s="2">
+        <v>22</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:219" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G12" s="2">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="I12" s="2">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K12" s="2">
+        <v>27</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="M12" s="2">
+        <v>27</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="O12" s="2">
+        <v>34</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>41</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="S12" s="2">
+        <v>48</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="U12" s="2">
+        <v>48</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="W12" s="2">
+        <v>50</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>57</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>68</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>85</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>90</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>90</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>98</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>100</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>101</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>109</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="BE12" s="2">
+        <v>109</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>119</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="BI12" s="2">
+        <v>124</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="BK12" s="2">
+        <v>126</v>
+      </c>
+      <c r="BL12" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="BM12" s="2">
+        <v>132</v>
+      </c>
+      <c r="BN12" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="BO12" s="2">
+        <v>135</v>
+      </c>
+      <c r="BP12" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>139</v>
+      </c>
+      <c r="BR12" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="BS12" s="2">
+        <v>139</v>
+      </c>
+      <c r="BT12" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="BU12" s="2">
+        <v>142</v>
+      </c>
+      <c r="BV12" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="BW12" s="2">
+        <v>145</v>
+      </c>
+      <c r="BX12" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="BY12" s="2">
+        <v>150</v>
+      </c>
+      <c r="BZ12" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="CA12" s="2">
+        <v>150</v>
+      </c>
+      <c r="CB12" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="CC12" s="2">
+        <v>153</v>
+      </c>
+      <c r="CD12" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="CE12" s="2">
+        <v>158</v>
+      </c>
+      <c r="CF12" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="CG12" s="2">
+        <v>158</v>
+      </c>
+      <c r="CH12" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="CI12" s="2">
+        <v>159</v>
+      </c>
+      <c r="CJ12" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="CK12" s="2">
+        <v>160</v>
+      </c>
+      <c r="CL12" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="CM12" s="2">
+        <v>166</v>
+      </c>
+      <c r="CN12" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="CO12" s="2">
+        <v>167</v>
+      </c>
+      <c r="CP12" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="CQ12" s="2">
+        <v>167</v>
+      </c>
+      <c r="CR12" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="CS12" s="2">
+        <v>171</v>
+      </c>
+      <c r="CT12" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="CU12" s="2">
+        <v>176</v>
+      </c>
+      <c r="CV12" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="CW12" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:219" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="K13" s="2">
+        <v>8</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="M13" s="2">
+        <v>8</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="O13" s="2">
+        <v>9</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>13</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="S13" s="2">
+        <v>20</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="U13" s="2">
+        <v>21</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="W13" s="2">
+        <v>21</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>25</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>26</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>29</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>30</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>30</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>30</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>31</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>31</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>31</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>34</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>35</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>35</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>35</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="BE13" s="2">
+        <v>36</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>36</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>39</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>43</v>
+      </c>
+      <c r="BL13" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>44</v>
+      </c>
+      <c r="BN13" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>44</v>
+      </c>
+      <c r="BP13" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>44</v>
+      </c>
+      <c r="BR13" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="BS13" s="2">
+        <v>45</v>
+      </c>
+      <c r="BT13" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>45</v>
+      </c>
+      <c r="BV13" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="BW13" s="2">
+        <v>47</v>
+      </c>
+      <c r="BX13" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="BY13" s="2">
+        <v>49</v>
+      </c>
+      <c r="BZ13" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="CA13" s="2">
+        <v>50</v>
+      </c>
+      <c r="CB13" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="CC13" s="2">
+        <v>50</v>
+      </c>
+      <c r="CD13" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="CE13" s="2">
+        <v>50</v>
+      </c>
+      <c r="CF13" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="CG13" s="2">
+        <v>50</v>
+      </c>
+      <c r="CH13" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="CI13" s="2">
+        <v>50</v>
+      </c>
+      <c r="CJ13" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="CK13" s="2">
+        <v>51</v>
+      </c>
+      <c r="CL13" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="CM13" s="2">
+        <v>53</v>
+      </c>
+      <c r="CN13" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="CO13" s="2">
+        <v>61</v>
+      </c>
+      <c r="CP13" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="CQ13" s="2">
+        <v>61</v>
+      </c>
+      <c r="CR13" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="CS13" s="2">
+        <v>61</v>
+      </c>
+      <c r="CT13" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="CU13" s="2">
+        <v>61</v>
+      </c>
+      <c r="CV13" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="CW13" s="2">
+        <v>62</v>
+      </c>
+      <c r="CX13" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="CY13" s="2">
+        <v>62</v>
+      </c>
+      <c r="CZ13" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="DA13" s="2">
+        <v>63</v>
+      </c>
+      <c r="DB13" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="DC13" s="2">
+        <v>65</v>
+      </c>
+      <c r="DD13" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="DE13" s="2">
+        <v>71</v>
+      </c>
+      <c r="DF13" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="DG13" s="2">
+        <v>71</v>
+      </c>
+      <c r="DH13" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="DI13" s="2">
+        <v>71</v>
+      </c>
+      <c r="DJ13" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="DK13" s="2">
+        <v>71</v>
+      </c>
+      <c r="DL13" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="DM13" s="2">
+        <v>72</v>
+      </c>
+      <c r="DN13" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="DO13" s="2">
+        <v>72</v>
+      </c>
+      <c r="DP13" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="DQ13" s="2">
+        <v>73</v>
+      </c>
+      <c r="DR13" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="DS13" s="2">
+        <v>75</v>
+      </c>
+      <c r="DT13" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="DU13" s="2">
+        <v>80</v>
+      </c>
+      <c r="DV13" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="DW13" s="2">
+        <v>81</v>
+      </c>
+      <c r="DX13" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="DY13" s="2">
+        <v>81</v>
+      </c>
+      <c r="DZ13" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="EA13" s="2">
+        <v>81</v>
+      </c>
+      <c r="EB13" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="EC13" s="2">
+        <v>82</v>
+      </c>
+      <c r="ED13" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="EE13" s="2">
+        <v>82</v>
+      </c>
+      <c r="EF13" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="EG13" s="2">
+        <v>83</v>
+      </c>
+      <c r="EH13" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="EI13" s="2">
+        <v>85</v>
+      </c>
+      <c r="EJ13" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="EK13" s="2">
+        <v>89</v>
+      </c>
+      <c r="EL13" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="EM13" s="2">
+        <v>89</v>
+      </c>
+      <c r="EN13" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="EO13" s="2">
+        <v>90</v>
+      </c>
+      <c r="EP13" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="EQ13" s="2">
+        <v>90</v>
+      </c>
+      <c r="ER13" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="ES13" s="2">
+        <v>90</v>
+      </c>
+      <c r="ET13" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="EU13" s="2">
+        <v>90</v>
+      </c>
+      <c r="EV13" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="EW13" s="2">
+        <v>92</v>
+      </c>
+      <c r="EX13" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="EY13" s="2">
+        <v>93</v>
+      </c>
+      <c r="EZ13" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="FA13" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:219" ht="301.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E14" s="2">
+        <v>38</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G14" s="2">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="I14" s="2">
+        <v>105</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="K14" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M14" s="2">
+        <v>162</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="O14" s="2">
+        <v>186</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>193</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="S14" s="2">
+        <v>213</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="U14" s="2">
+        <v>242</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="W14" s="2">
+        <v>262</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>279</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>306</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>328</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:219" ht="151.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G15" s="2">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I15" s="2">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="K15" s="2">
+        <v>21</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="M15" s="2">
+        <v>29</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="O15" s="2">
+        <v>42</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>50</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="S15" s="2">
+        <v>55</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="U15" s="2">
+        <v>68</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="W15" s="2">
+        <v>83</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>92</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>98</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>110</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:219" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G16" s="2">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="I16" s="2">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="K16" s="2">
+        <v>13</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="M16" s="2">
+        <v>15</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="O16" s="2">
+        <v>15</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>19</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="S16" s="2">
+        <v>19</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="U16" s="2">
+        <v>19</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="W16" s="2">
+        <v>22</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>24</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>25</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>25</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>30</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>31</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>32</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>38</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>38</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>38</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>39</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>40</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="BC16" s="2">
+        <v>41</v>
+      </c>
+      <c r="BD16" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="BE16" s="2">
+        <v>42</v>
+      </c>
+      <c r="BF16" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="BG16" s="2">
+        <v>44</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="BI16" s="2">
+        <v>44</v>
+      </c>
+      <c r="BJ16" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="BK16" s="2">
+        <v>44</v>
+      </c>
+      <c r="BL16" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="BM16" s="2">
+        <v>47</v>
+      </c>
+      <c r="BN16" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="BO16" s="2">
+        <v>49</v>
+      </c>
+      <c r="BP16" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="BQ16" s="2">
+        <v>52</v>
+      </c>
+      <c r="BR16" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="BS16" s="2">
+        <v>53</v>
+      </c>
+      <c r="BT16" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="BU16" s="2">
+        <v>54</v>
+      </c>
+      <c r="BV16" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="BW16" s="2">
+        <v>55</v>
+      </c>
+      <c r="BX16" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="BY16" s="2">
+        <v>55</v>
+      </c>
+      <c r="BZ16" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="CA16" s="2">
+        <v>57</v>
+      </c>
+      <c r="CB16" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="CC16" s="2">
+        <v>58</v>
+      </c>
+      <c r="CD16" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="CE16" s="2">
+        <v>59</v>
+      </c>
+      <c r="CF16" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="CG16" s="2">
+        <v>62</v>
+      </c>
+      <c r="CH16" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="CI16" s="2">
+        <v>66</v>
+      </c>
+      <c r="CJ16" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="CK16" s="2">
+        <v>69</v>
+      </c>
+      <c r="CL16" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="CM16" s="2">
+        <v>69</v>
+      </c>
+      <c r="CN16" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="CO16" s="2">
+        <v>70</v>
+      </c>
+      <c r="CP16" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="CQ16" s="2">
+        <v>71</v>
+      </c>
+      <c r="CR16" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="CS16" s="2">
+        <v>71</v>
+      </c>
+      <c r="CT16" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="CU16" s="2">
+        <v>73</v>
+      </c>
+      <c r="CV16" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="CW16" s="2">
+        <v>74</v>
+      </c>
+      <c r="CX16" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="CY16" s="2">
+        <v>75</v>
+      </c>
+      <c r="CZ16" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="DA16" s="2">
+        <v>76</v>
+      </c>
+      <c r="DB16" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="DC16" s="2">
+        <v>77</v>
+      </c>
+      <c r="DD16" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="DE16" s="2">
+        <v>78</v>
+      </c>
+      <c r="DF16" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="DG16" s="2">
+        <v>80</v>
+      </c>
+      <c r="DH16" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="DI16" s="2">
+        <v>84</v>
+      </c>
+      <c r="DJ16" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="DK16" s="2">
+        <v>85</v>
+      </c>
+      <c r="DL16" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="DM16" s="2">
+        <v>86</v>
+      </c>
+      <c r="DN16" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="DO16" s="2">
+        <v>87</v>
+      </c>
+      <c r="DP16" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="DQ16" s="2">
+        <v>88</v>
+      </c>
+      <c r="DR16" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="DS16" s="2">
+        <v>91</v>
+      </c>
+      <c r="DT16" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="DU16" s="2">
+        <v>94</v>
+      </c>
+      <c r="DV16" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="DW16" s="2">
+        <v>98</v>
+      </c>
+      <c r="DX16" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="DY16" s="2">
+        <v>98</v>
+      </c>
+      <c r="DZ16" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="EA16" s="2">
+        <v>98</v>
+      </c>
+      <c r="EB16" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="EC16" s="2">
+        <v>98</v>
+      </c>
+      <c r="ED16" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="EE16" s="2">
+        <v>98</v>
+      </c>
+      <c r="EF16" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="EG16" s="2">
+        <v>99</v>
+      </c>
+      <c r="EH16" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="EI16" s="2">
+        <v>100</v>
+      </c>
+      <c r="EJ16" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="EK16" s="2">
+        <v>102</v>
+      </c>
+      <c r="EL16" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="EM16" s="2">
+        <v>103</v>
+      </c>
+      <c r="EN16" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="EO16" s="2">
+        <v>104</v>
+      </c>
+      <c r="EP16" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="EQ16" s="2">
+        <v>104</v>
+      </c>
+      <c r="ER16" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="ES16" s="2">
+        <v>104</v>
+      </c>
+      <c r="ET16" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="EU16" s="2">
+        <v>106</v>
+      </c>
+      <c r="EV16" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="EW16" s="2">
+        <v>107</v>
+      </c>
+      <c r="EX16" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="EY16" s="2">
+        <v>107</v>
+      </c>
+      <c r="EZ16" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="FA16" s="2">
+        <v>108</v>
+      </c>
+      <c r="FB16" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="FC16" s="2">
+        <v>109</v>
+      </c>
+      <c r="FD16" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="FE16" s="2">
+        <v>110</v>
+      </c>
+      <c r="FF16" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="FG16" s="2">
+        <v>111</v>
+      </c>
+      <c r="FH16" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="FI16" s="2">
+        <v>111</v>
+      </c>
+      <c r="FJ16" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="FK16" s="2">
+        <v>112</v>
+      </c>
+      <c r="FL16" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="FM16" s="2">
+        <v>116</v>
+      </c>
+      <c r="FN16" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="FO16" s="2">
+        <v>118</v>
+      </c>
+      <c r="FP16" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="FQ16" s="2">
+        <v>118</v>
+      </c>
+      <c r="FR16" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="FS16" s="2">
+        <v>119</v>
+      </c>
+      <c r="FT16" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="FU16" s="2">
+        <v>119</v>
+      </c>
+      <c r="FV16" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="FW16" s="2">
+        <v>122</v>
+      </c>
+      <c r="FX16" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="FY16" s="2">
+        <v>123</v>
+      </c>
+      <c r="FZ16" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="GA16" s="2">
+        <v>124</v>
+      </c>
+      <c r="GB16" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="GC16" s="2">
+        <v>124</v>
+      </c>
+      <c r="GD16" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="GE16" s="2">
+        <v>126</v>
+      </c>
+      <c r="GF16" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="GG16" s="2">
+        <v>127</v>
+      </c>
+      <c r="GH16" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="GI16" s="2">
+        <v>127</v>
+      </c>
+      <c r="GJ16" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="GK16" s="2">
+        <v>127</v>
+      </c>
+      <c r="GL16" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="GM16" s="2">
+        <v>129</v>
+      </c>
+      <c r="GN16" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="GO16" s="2">
+        <v>130</v>
+      </c>
+      <c r="GP16" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="GQ16" s="2">
+        <v>131</v>
+      </c>
+      <c r="GR16" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="GS16" s="2">
+        <v>132</v>
+      </c>
+      <c r="GT16" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="GU16" s="2">
+        <v>134</v>
+      </c>
+      <c r="GV16" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="GW16" s="2">
+        <v>134</v>
+      </c>
+      <c r="GX16" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="GY16" s="2">
+        <v>134</v>
+      </c>
+      <c r="GZ16" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="HA16" s="2">
+        <v>135</v>
+      </c>
+      <c r="HB16" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="HC16" s="2">
+        <v>136</v>
+      </c>
+      <c r="HD16" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="HE16" s="2">
+        <v>137</v>
+      </c>
+      <c r="HF16" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="HG16" s="2">
+        <v>139</v>
+      </c>
+      <c r="HH16" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="HI16" s="2">
+        <v>140</v>
+      </c>
+      <c r="HJ16" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="HK16" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:123" ht="331.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="I17" s="2">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="K17" s="2">
+        <v>6</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="M17" s="2">
+        <v>8</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="O17" s="2">
+        <v>12</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>13</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="S17" s="2">
+        <v>13</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="U17" s="2">
+        <v>23</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="W17" s="2">
+        <v>29</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>32</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:123" ht="286.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="2">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K18" s="2">
+        <v>15</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M18" s="2">
+        <v>18</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O18" s="2">
+        <v>21</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>23</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="S18" s="2">
+        <v>26</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="U18" s="2">
+        <v>31</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="W18" s="2">
+        <v>40</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>47</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>64</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>67</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>70</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>72</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>74</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>77</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>79</v>
+      </c>
+      <c r="AX18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>82</v>
+      </c>
+      <c r="AZ18" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:123" ht="346.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G19" s="2">
+        <v>8</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="I19" s="2">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="K19" s="2">
+        <v>29</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="M19" s="2">
+        <v>29</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="O19" s="2">
+        <v>31</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>37</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="S19" s="2">
+        <v>49</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="U19" s="2">
+        <v>49</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="W19" s="2">
+        <v>52</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>56</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>67</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>67</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>68</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL19" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>90</v>
+      </c>
+      <c r="AN19" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>115</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>115</v>
+      </c>
+      <c r="AR19" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>118</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>123</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>126</v>
+      </c>
+      <c r="AX19" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>133</v>
+      </c>
+      <c r="AZ19" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>133</v>
+      </c>
+      <c r="BB19" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="BC19" s="2">
+        <v>134</v>
+      </c>
+      <c r="BD19" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="BE19" s="2">
+        <v>136</v>
+      </c>
+      <c r="BF19" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="BG19" s="2">
+        <v>138</v>
+      </c>
+      <c r="BH19" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="BI19" s="2">
+        <v>150</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="BK19" s="2">
+        <v>150</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="BM19" s="2">
+        <v>152</v>
+      </c>
+      <c r="BN19" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="BO19" s="2">
+        <v>157</v>
+      </c>
+      <c r="BP19" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="BQ19" s="2">
+        <v>161</v>
+      </c>
+      <c r="BR19" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="BS19" s="2">
+        <v>172</v>
+      </c>
+      <c r="BT19" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="BU19" s="2">
+        <v>172</v>
+      </c>
+      <c r="BV19" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="BW19" s="2">
+        <v>174</v>
+      </c>
+      <c r="BX19" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="BY19" s="2">
+        <v>178</v>
+      </c>
+      <c r="BZ19" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="CA19" s="2">
+        <v>182</v>
+      </c>
+      <c r="CB19" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="CC19" s="2">
+        <v>191</v>
+      </c>
+      <c r="CD19" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="CE19" s="2">
+        <v>191</v>
+      </c>
+      <c r="CF19" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="CG19" s="2">
+        <v>194</v>
+      </c>
+      <c r="CH19" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="CI19" s="2">
+        <v>195</v>
+      </c>
+      <c r="CJ19" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="CK19" s="2">
+        <v>203</v>
+      </c>
+      <c r="CL19" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="CM19" s="2">
+        <v>203</v>
+      </c>
+      <c r="CN19" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="CO19" s="2">
+        <v>204</v>
+      </c>
+      <c r="CP19" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="CQ19" s="2">
+        <v>204</v>
+      </c>
+      <c r="CR19" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="CS19" s="2">
+        <v>205</v>
+      </c>
+      <c r="CT19" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="CU19" s="2">
+        <v>207</v>
+      </c>
+      <c r="CV19" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="CW19" s="2">
+        <v>208</v>
+      </c>
+      <c r="CX19" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="CY19" s="2">
+        <v>209</v>
+      </c>
+      <c r="CZ19" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="DA19" s="2">
+        <v>210</v>
+      </c>
+      <c r="DB19" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="DC19" s="2">
+        <v>211</v>
+      </c>
+      <c r="DD19" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="DE19" s="2">
+        <v>212</v>
+      </c>
+      <c r="DF19" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="DG19" s="2">
+        <v>213</v>
+      </c>
+      <c r="DH19" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="DI19" s="2">
+        <v>214</v>
+      </c>
+      <c r="DJ19" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="DK19" s="2">
+        <v>215</v>
+      </c>
+      <c r="DL19" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="DM19" s="2">
+        <v>216</v>
+      </c>
+      <c r="DN19" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="DO19" s="2">
+        <v>217</v>
+      </c>
+      <c r="DP19" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="DQ19" s="2">
+        <v>219</v>
+      </c>
+      <c r="DR19" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="DS19" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:123" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
@@ -4546,131 +8374,131 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
-      <c r="B109" s="2"/>
+      <c r="B109" s="1"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="2"/>
+      <c r="B111" s="1"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
-      <c r="B112" s="1"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="2"/>
+      <c r="B113" s="1"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
-      <c r="B114" s="1"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="2"/>
+      <c r="B115" s="1"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
+      <c r="B117" s="1"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
-      <c r="B118" s="1"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
+      <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
-      <c r="B120" s="1"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="2"/>
+      <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
-      <c r="B122" s="1"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="2"/>
+      <c r="B123" s="1"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
-      <c r="B124" s="1"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="2"/>
+      <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
-      <c r="B126" s="1"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
-      <c r="B127" s="2"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
-      <c r="B128" s="1"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
+      <c r="B129" s="1"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
-      <c r="B130" s="1"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
-      <c r="B131" s="2"/>
+      <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
-      <c r="B132" s="1"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
-      <c r="B133" s="2"/>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
-      <c r="B134" s="1"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
-      <c r="B135" s="2"/>
+      <c r="B135" s="1"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
-      <c r="B136" s="1"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="B137" s="2"/>
+      <c r="B137" s="1"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
-      <c r="B140" s="1"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
@@ -4738,180 +8566,293 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
+      <c r="B158" s="1"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" s="1"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" s="1"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" s="1"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" s="1"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" s="1"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" s="1"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" s="1"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" s="1"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" s="1"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="1"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="1"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="1"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="1"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="1"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="1"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="1"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="1"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="1"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
